--- a/flowsheet_units.xlsx
+++ b/flowsheet_units.xlsx
@@ -854,10 +854,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>9.347996010082952</v>
+        <v>9.340476362773011</v>
       </c>
       <c r="G15" t="n">
-        <v>200.387418723602</v>
+        <v>197.0182712762979</v>
       </c>
     </row>
     <row r="17">
@@ -928,10 +928,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>9.347996010082952</v>
+        <v>9.340476362773011</v>
       </c>
       <c r="G19" t="n">
-        <v>200.387418723602</v>
+        <v>197.0182712762979</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1373,10 +1373,10 @@
         <v>100000</v>
       </c>
       <c r="F36" t="n">
-        <v>9.347996010082952</v>
+        <v>9.340476362773011</v>
       </c>
       <c r="G36" t="n">
-        <v>200.387418723602</v>
+        <v>197.0182712762979</v>
       </c>
     </row>
     <row r="38">
@@ -1447,10 +1447,10 @@
         <v>100000</v>
       </c>
       <c r="F40" t="n">
-        <v>1.554804084648952</v>
+        <v>1.547284437339011</v>
       </c>
       <c r="G40" t="n">
-        <v>47.43952586043418</v>
+        <v>44.07037841313006</v>
       </c>
     </row>
     <row r="41">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HNO3, H2O, AHA</t>
+          <t>H2O, AHA, HNO3</t>
         </is>
       </c>
     </row>
@@ -1777,10 +1777,10 @@
         <v>100000</v>
       </c>
       <c r="F24" t="n">
-        <v>1.446066894640746</v>
+        <v>5.900175878399724</v>
       </c>
       <c r="G24" t="n">
-        <v>441.3089661219628</v>
+        <v>1293.926768278144</v>
       </c>
     </row>
     <row r="25">
@@ -1806,10 +1806,10 @@
         <v>100000</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07230334473203728</v>
+        <v>2.950087939199862</v>
       </c>
       <c r="G25" t="n">
-        <v>1.350436276201107</v>
+        <v>55.09988211255751</v>
       </c>
     </row>
     <row r="27">
@@ -1880,10 +1880,10 @@
         <v>100000</v>
       </c>
       <c r="F29" t="n">
-        <v>1.443039583245681</v>
+        <v>5.881288806059096</v>
       </c>
       <c r="G29" t="n">
-        <v>439.9320999959801</v>
+        <v>1285.898456825352</v>
       </c>
     </row>
     <row r="30">
@@ -1909,10 +1909,10 @@
         <v>100000</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07533065612710137</v>
+        <v>2.96897501154049</v>
       </c>
       <c r="G30" t="n">
-        <v>2.727302402183777</v>
+        <v>63.12819356535026</v>
       </c>
     </row>
   </sheetData>
@@ -2098,10 +2098,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07533065612710137</v>
+        <v>2.96897501154049</v>
       </c>
       <c r="G15" t="n">
-        <v>2.727302402183777</v>
+        <v>63.12819356535026</v>
       </c>
     </row>
     <row r="17">
@@ -2172,10 +2172,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07533065612710137</v>
+        <v>2.96897501154049</v>
       </c>
       <c r="G19" t="n">
-        <v>2.727302402183777</v>
+        <v>63.12819356535026</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.8733409324271144</t>
+          <t>101.30103657546921</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.8733409324271144</t>
+          <t>101.30103657546921</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.000325690742036204</t>
+          <t>0.013288684410810188</t>
         </is>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>H2O:0.05; HNO3:0.0005139034985386212</t>
+          <t>H2O:0.4365332828951147; HNO3:0.010630947528648151</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.35176003846031084</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>H2O:0.021326272505928667; HNO3:0.00013747798553378674</t>
+          <t>H2O:2.4736886030723166; HNO3:0.015946421292972225</t>
         </is>
       </c>
     </row>
@@ -2617,10 +2617,10 @@
         <v>100000</v>
       </c>
       <c r="F36" t="n">
-        <v>0.07533065612710137</v>
+        <v>2.96897501154049</v>
       </c>
       <c r="G36" t="n">
-        <v>2.727302402183777</v>
+        <v>63.12819356535026</v>
       </c>
     </row>
     <row r="38">
@@ -2691,10 +2691,10 @@
         <v>100000</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05402975100665702</v>
+        <v>0.4859843293806062</v>
       </c>
       <c r="G40" t="n">
-        <v>2.336723906987963</v>
+        <v>17.65278531954788</v>
       </c>
     </row>
     <row r="41">
@@ -2720,10 +2720,10 @@
         <v>100000</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02146375049146245</v>
+        <v>2.489635024365289</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3928555620187599</v>
+        <v>45.56831608286056</v>
       </c>
     </row>
   </sheetData>
@@ -2930,10 +2930,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02146375049146245</v>
+        <v>2.489635024365289</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3928555620187599</v>
+        <v>45.56831608286056</v>
       </c>
     </row>
     <row r="17">
@@ -3004,10 +3004,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>7.814655675925462</v>
+        <v>10.28282694979929</v>
       </c>
       <c r="G19" t="n">
-        <v>153.3407484251866</v>
+        <v>198.5162089460284</v>
       </c>
     </row>
   </sheetData>
@@ -3193,10 +3193,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>1.443039583245681</v>
+        <v>5.881288806059096</v>
       </c>
       <c r="G15" t="n">
-        <v>439.9320999959801</v>
+        <v>1285.898456825352</v>
       </c>
     </row>
     <row r="17">
@@ -3267,10 +3267,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>1.443039583245681</v>
+        <v>5.881288806059096</v>
       </c>
       <c r="G19" t="n">
-        <v>439.9320999959801</v>
+        <v>1285.898456825352</v>
       </c>
     </row>
   </sheetData>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.6233797469117313</t>
+          <t>0.6233797469117311</t>
         </is>
       </c>
     </row>
@@ -3560,10 +3560,10 @@
         <v>100000</v>
       </c>
       <c r="F24" t="n">
-        <v>1.443039583245681</v>
+        <v>5.881288806059096</v>
       </c>
       <c r="G24" t="n">
-        <v>439.9320999959801</v>
+        <v>1285.898456825352</v>
       </c>
     </row>
     <row r="25">
@@ -3589,10 +3589,10 @@
         <v>100000</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8995616501873031</v>
+        <v>3.666276327435916</v>
       </c>
       <c r="G25" t="n">
-        <v>16.21289638498435</v>
+        <v>66.0776926218041</v>
       </c>
     </row>
     <row r="27">
@@ -3663,10 +3663,10 @@
         <v>100000</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6342004218000266</v>
+        <v>5.080788952460686</v>
       </c>
       <c r="G29" t="n">
-        <v>121.2885419146805</v>
+        <v>970.5369683388589</v>
       </c>
     </row>
     <row r="30">
@@ -3692,10 +3692,10 @@
         <v>100000</v>
       </c>
       <c r="F30" t="n">
-        <v>1.708400811632958</v>
+        <v>4.466776181034326</v>
       </c>
       <c r="G30" t="n">
-        <v>334.856454466284</v>
+        <v>381.4391811082967</v>
       </c>
     </row>
   </sheetData>
@@ -3881,10 +3881,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6342004218000266</v>
+        <v>5.080788952460686</v>
       </c>
       <c r="G15" t="n">
-        <v>121.2885419146805</v>
+        <v>970.5369683388589</v>
       </c>
     </row>
     <row r="17">
@@ -3955,10 +3955,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6342004218000266</v>
+        <v>5.080788952460686</v>
       </c>
       <c r="G19" t="n">
-        <v>121.2885419146805</v>
+        <v>970.5369683388589</v>
       </c>
     </row>
   </sheetData>
@@ -4148,10 +4148,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6342004218000266</v>
+        <v>5.080788952460686</v>
       </c>
       <c r="G15" t="n">
-        <v>121.2885419146805</v>
+        <v>970.5369683388589</v>
       </c>
     </row>
     <row r="17">
@@ -4222,10 +4222,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03171002109000133</v>
+        <v>0.2540394476230343</v>
       </c>
       <c r="G19" t="n">
-        <v>6.064427095734027</v>
+        <v>48.52684841694294</v>
       </c>
     </row>
     <row r="20">
@@ -4251,10 +4251,10 @@
         <v>100000</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6024904007100251</v>
+        <v>4.826749504837651</v>
       </c>
       <c r="G20" t="n">
-        <v>115.2241148189465</v>
+        <v>922.0101199219158</v>
       </c>
     </row>
   </sheetData>
@@ -6294,10 +6294,10 @@
         <v>100000</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6024904007100251</v>
+        <v>4.826749504837651</v>
       </c>
       <c r="G14" t="n">
-        <v>115.2241148189465</v>
+        <v>922.0101199219158</v>
       </c>
     </row>
     <row r="15">
@@ -6323,10 +6323,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0316673951310102</v>
+        <v>0.2539976294970997</v>
       </c>
       <c r="G15" t="n">
-        <v>6.048127100517057</v>
+        <v>48.51077709654021</v>
       </c>
     </row>
     <row r="17">
@@ -6397,10 +6397,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6341577961036978</v>
+        <v>5.080747132552736</v>
       </c>
       <c r="G19" t="n">
-        <v>121.2722419691607</v>
+        <v>970.5208966780378</v>
       </c>
     </row>
   </sheetData>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.06241768887837913</t>
+          <t>0.5000782072503869</t>
         </is>
       </c>
     </row>
@@ -6602,7 +6602,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>I_aq, Eu(NO3)3, H2O, Sm(NO3)3, CsNO3, HNO3, Gd(NO3)3, Sr(NO3)2, Nd(NO3)3</t>
+          <t>CsNO3, H2O, Sr(NO3)2, I_aq, Nd(NO3)3, HNO3, Sm(NO3)3, Gd(NO3)3, Eu(NO3)3</t>
         </is>
       </c>
     </row>
@@ -6727,10 +6727,10 @@
         <v>100000</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6341577961036978</v>
+        <v>5.080747132552736</v>
       </c>
       <c r="G25" t="n">
-        <v>121.2722419691607</v>
+        <v>970.5208966780378</v>
       </c>
     </row>
     <row r="27">
@@ -6801,10 +6801,10 @@
         <v>100000</v>
       </c>
       <c r="F29" t="n">
-        <v>1.446066894640746</v>
+        <v>5.900175878399724</v>
       </c>
       <c r="G29" t="n">
-        <v>441.3089661219628</v>
+        <v>1293.926768278144</v>
       </c>
     </row>
     <row r="30">
@@ -6830,10 +6830,10 @@
         <v>100000</v>
       </c>
       <c r="F30" t="n">
-        <v>9.347996010082952</v>
+        <v>9.340476362773011</v>
       </c>
       <c r="G30" t="n">
-        <v>200.387418723602</v>
+        <v>197.0182712762979</v>
       </c>
     </row>
   </sheetData>

--- a/flowsheet_units.xlsx
+++ b/flowsheet_units.xlsx
@@ -12,20 +12,21 @@
     <sheet name="HX__F2__to__R101_Dissolver" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="HX__F2_B__to__R101_Dissolver" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="R101_Dissolver" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="HX__F5__to__V101_Liquid_Buffer" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="V101_Liquid_Buffer" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="M114_OrgFeedMixer" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="X101_TBP_Extraction" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="HX__F17__to__T101_Evaporator" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="V101_Liquid_Buffer" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="M114_OrgFeedMixer" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="X101_TBP_Extraction" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="HX__F17__to__T101_Evaporator" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="PC__F17__to__T101_Evaporator" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="T101_Evaporator" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="X102_AHA_Strip" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="HX__F18__to__T102_Evaporator" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="T102_Evaporator" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="M201_EvapOverheadMixer" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="HX__F10__to__X103_Final_Strip" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="X103_Final_Strip" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="HX__F13__to__V133_SolventPurge" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="V133_SolventPurge" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="PC__F18__to__T102_Evaporator" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="T102_Evaporator" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="M201_EvapOverheadMixer" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="HX__F10__to__X103_Final_Strip" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="HX__F11__to__X103_Final_Strip" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="X103_Final_Strip" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="V133_SolventPurge" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -698,7 +699,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F17__to__T101_Evaporator</t>
+          <t>PC__F17__to__T101_Evaporator</t>
         </is>
       </c>
     </row>
@@ -710,7 +711,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HeaterCooler</t>
+          <t>PressureChanger</t>
         </is>
       </c>
     </row>
@@ -738,7 +739,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HX_</t>
+          <t>PC_</t>
         </is>
       </c>
     </row>
@@ -777,12 +778,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>set_T</t>
+          <t>set_p</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>388.15</t>
+          <t>9332.565789473683</t>
         </is>
       </c>
     </row>
@@ -839,7 +840,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F17</t>
+          <t>F17__to__T101_Evaporator__T</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -848,16 +849,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>298.15</v>
+        <v>323.15</v>
       </c>
       <c r="E15" t="n">
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>9.340476362773011</v>
+        <v>9.350066975833931</v>
       </c>
       <c r="G15" t="n">
-        <v>197.0182712762979</v>
+        <v>200.9788085527522</v>
       </c>
     </row>
     <row r="17">
@@ -913,7 +914,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F17_T</t>
+          <t>F17__to__T101_Evaporator__p</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -922,16 +923,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>388.15</v>
+        <v>323.15</v>
       </c>
       <c r="E19" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="F19" t="n">
-        <v>9.340476362773011</v>
+        <v>9.350066975833931</v>
       </c>
       <c r="G19" t="n">
-        <v>197.0182712762979</v>
+        <v>200.9788085527522</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,7 +985,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>388.15</v>
+        <v>323.15</v>
       </c>
     </row>
     <row r="4">
@@ -994,7 +995,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
     </row>
     <row r="6">
@@ -1068,79 +1069,79 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q_latent_kW</t>
+          <t>P_set_torr</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>316.70863488995417</t>
+          <t>70.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q_sensible_kW</t>
+          <t>Q_latent_kW</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>104.57562968325128</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q_total_kW</t>
+          <t>Q_sensible_kW</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>316.70863488995417</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>T_set_K</t>
+          <t>Q_total_kW</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>388.15</t>
+          <t>104.57562968325128</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>_call_counter</t>
+          <t>T_set_K</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>323.15</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>aha_destroyed_mol_s</t>
+          <t>_call_counter</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>96</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>aha_hno3_consumption</t>
+          <t>aha_destroyed_mol_s</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1152,334 +1153,358 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>aha_name</t>
+          <t>aha_hno3_consumption</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AHA</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>aha_products</t>
+          <t>aha_name</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AcOH:1.0; N2O:0.5</t>
+          <t>AHA</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>coupled_by_water</t>
+          <t>aha_products</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>AcOH:1.0; N2O:0.5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>cp_liq_J_per_molK</t>
+          <t>coupled_by_water</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>frac_vap</t>
+          <t>cp_liq_J_per_molK</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>H2O:0.85; HNO3:0.6</t>
+          <t>75.0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>latent_kJ_per_mol</t>
+          <t>frac_vap</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>H2O:40.7; HNO3:39.0</t>
+          <t>H2O:0.85; HNO3:0.6</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>liq_rate_mol_s</t>
+          <t>latent_kJ_per_mol</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>H2O:1.3260363112139997; HNO3:0.18599077459199992</t>
+          <t>H2O:43.99; HNO3:39.0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>min_liq_mol_s</t>
+          <t>liq_rate_mol_s</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>H2O:0.25; HNO3:0.01</t>
+          <t>I_aq:0.0006058394607003579; Zircaloy:0.34150225401478446; HNO3:0.15915161467909322; H2O:6.7341169978557955; TBP:0.09604240939408791; UO2(NO3)2:0.061088609458891205; Pu(NO3)4:0.31493445680025195; Np(NO3)4:0.017284392367725186; Am(NO3)4:0.01763025929075941; Nd(NO3)3:0.6877452210649297; Sm(NO3)3:0.13859020427711893; Eu(NO3)3:0.020072487954296; Gd(NO3)3:0.01163967210916801; CsNO3:0.46807589566178226; Sr(NO3)2:0.11472273554817934; HTcO4:0.16686392589581295</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>print_diagnostics</t>
+          <t>min_liq_mol_s</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>H2O:0.25; HNO3:0.01</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>print_every</t>
+          <t>print_diagnostics</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>print_every</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vap_rate_mol_s</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>H2O:7.514205763545999; HNO3:0.2789861618879999</t>
+          <t>0.23824291903922576</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>water_name</t>
+          <t>use_equilibrium</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>H2O</t>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>vap_rate_mol_s</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>HNO3:0.3058253218009066; H2O:2.1061250769042035</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
+          <t>water_name</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>H2O</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>F17_T</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>388.15</v>
-      </c>
-      <c r="E36" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F36" t="n">
-        <v>9.340476362773011</v>
-      </c>
-      <c r="G36" t="n">
-        <v>197.0182712762979</v>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>F17__to__T101_Evaporator__p</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9332.565789473683</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9.350066975833931</v>
+      </c>
+      <c r="G38" t="n">
+        <v>200.9788085527522</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>liq</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>F19</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>388.15</v>
-      </c>
-      <c r="E40" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.547284437339011</v>
-      </c>
-      <c r="G40" t="n">
-        <v>44.07037841313006</v>
-      </c>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>liq</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>F19</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9332.565789473683</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6.93811657712882</v>
+      </c>
+      <c r="G42" t="n">
+        <v>143.7663001150042</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>vap</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>F20</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>388.15</v>
-      </c>
-      <c r="E41" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F41" t="n">
-        <v>7.793191925433999</v>
-      </c>
-      <c r="G41" t="n">
-        <v>152.9478928631678</v>
+      <c r="D43" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9332.565789473683</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.41195039870511</v>
+      </c>
+      <c r="G43" t="n">
+        <v>57.21250843774795</v>
       </c>
     </row>
   </sheetData>
@@ -1633,7 +1658,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>UO2(NO3)2:40.0; Pu(NO3)4:0.01; Np(NO3)4:0.001; HTcO4:0.5</t>
+          <t>UO2(NO3)2:40.0; Pu(NO3)4:0.01; Np(NO3)4:0.001; HTcO4:0.5; TBP:10000.0</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1706,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>H2O, AHA, HNO3</t>
+          <t>AHA, H2O, HNO3</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1718,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TBP, Dodecane</t>
+          <t>Dodecane</t>
         </is>
       </c>
     </row>
@@ -1777,10 +1802,10 @@
         <v>100000</v>
       </c>
       <c r="F24" t="n">
-        <v>5.900175878399724</v>
+        <v>5.890554806699982</v>
       </c>
       <c r="G24" t="n">
-        <v>1293.926768278144</v>
+        <v>1289.960994853027</v>
       </c>
     </row>
     <row r="25">
@@ -1806,10 +1831,10 @@
         <v>100000</v>
       </c>
       <c r="F25" t="n">
-        <v>2.950087939199862</v>
+        <v>2.945277403349991</v>
       </c>
       <c r="G25" t="n">
-        <v>55.09988211255751</v>
+        <v>55.01003395762488</v>
       </c>
     </row>
     <row r="27">
@@ -1880,10 +1905,10 @@
         <v>100000</v>
       </c>
       <c r="F29" t="n">
-        <v>5.881288806059096</v>
+        <v>5.878288708300023</v>
       </c>
       <c r="G29" t="n">
-        <v>1285.898456825352</v>
+        <v>1284.967983538659</v>
       </c>
     </row>
     <row r="30">
@@ -1909,10 +1934,10 @@
         <v>100000</v>
       </c>
       <c r="F30" t="n">
-        <v>2.96897501154049</v>
+        <v>2.95754350174995</v>
       </c>
       <c r="G30" t="n">
-        <v>63.12819356535026</v>
+        <v>60.00304527199359</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +2051,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>388.15</t>
+          <t>323.15</t>
         </is>
       </c>
     </row>
@@ -2098,10 +2123,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>2.96897501154049</v>
+        <v>2.95754350174995</v>
       </c>
       <c r="G15" t="n">
-        <v>63.12819356535026</v>
+        <v>60.00304527199359</v>
       </c>
     </row>
     <row r="17">
@@ -2157,7 +2182,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F18_T</t>
+          <t>F18__to__T102_Evaporator__T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2166,16 +2191,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>388.15</v>
+        <v>323.15</v>
       </c>
       <c r="E19" t="n">
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>2.96897501154049</v>
+        <v>2.95754350174995</v>
       </c>
       <c r="G19" t="n">
-        <v>63.12819356535026</v>
+        <v>60.00304527199359</v>
       </c>
     </row>
   </sheetData>
@@ -2184,554 +2209,6 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>T102_Evaporator</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ContinuousEvaporatorAHA</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>388.15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>T102_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>T102_FRAC_VAP</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>H2O:0.85; HNO3:0.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>T102_MIN_LIQ_MOL_S</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>H2O:0.05; HNO3:0.0001</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Q_latent_kW</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>101.30103657546921</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Q_sensible_kW</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Q_total_kW</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>101.30103657546921</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>T_set_K</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>388.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>_call_counter</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>aha_destroyed_mol_s</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0.013288684410810188</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>aha_hno3_consumption</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>aha_name</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>AHA</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>aha_products</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>AcOH:1.0; N2O:0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>coupled_by_water</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>cp_liq_J_per_molK</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>frac_vap</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>H2O:0.85; HNO3:0.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>latent_kJ_per_mol</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>H2O:40.7; HNO3:39.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>liq_rate_mol_s</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>H2O:0.4365332828951147; HNO3:0.010630947528648151</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>min_liq_mol_s</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>H2O:0.05; HNO3:0.0001</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>print_diagnostics</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>print_every</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>vap_rate_mol_s</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>H2O:2.4736886030723166; HNO3:0.015946421292972225</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>water_name</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>H2O</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>F18_T</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>388.15</v>
-      </c>
-      <c r="E36" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2.96897501154049</v>
-      </c>
-      <c r="G36" t="n">
-        <v>63.12819356535026</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>liq</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>F21</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>388.15</v>
-      </c>
-      <c r="E40" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.4859843293806062</v>
-      </c>
-      <c r="G40" t="n">
-        <v>17.65278531954788</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>vap</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>F22</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>388.15</v>
-      </c>
-      <c r="E41" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2.489635024365289</v>
-      </c>
-      <c r="G41" t="n">
-        <v>45.56831608286056</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2753,7 +2230,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>M201_EvapOverheadMixer</t>
+          <t>PC__F18__to__T102_Evaporator</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2242,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mixer</t>
+          <t>PressureChanger</t>
         </is>
       </c>
     </row>
@@ -2775,9 +2252,7 @@
           <t>Condition_T [K]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>388.15</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2785,9 +2260,7 @@
           <t>Condition_p [Pa]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>100000</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2797,7 +2270,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M201_</t>
+          <t>PC_</t>
         </is>
       </c>
     </row>
@@ -2833,181 +2306,736 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_p</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9332.565789473683</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F18__to__T102_Evaporator__T</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.95754350174995</v>
+      </c>
+      <c r="G15" t="n">
+        <v>60.00304527199359</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F18__to__T102_Evaporator__p</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9332.565789473683</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.95754350174995</v>
+      </c>
+      <c r="G19" t="n">
+        <v>60.00304527199359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>T102_Evaporator</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ContinuousEvaporatorAHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>323.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9332.565789473683</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>T102_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>T102_FRAC_VAP</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>H2O:0.85; HNO3:0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>T102_MIN_LIQ_MOL_S</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>H2O:0.05; HNO3:0.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>P_set_torr</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
+          <t>70.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T101_vap</t>
+          <t>Q_latent_kW</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>F20</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>388.15</v>
-      </c>
-      <c r="E14" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7.793191925433999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>152.9478928631678</v>
+          <t>30.50758394441653</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>T102_vap</t>
+          <t>Q_sensible_kW</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F22</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>388.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.489635024365289</v>
-      </c>
-      <c r="G15" t="n">
-        <v>45.56831608286056</v>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Q_total_kW</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>30.50758394441653</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>T_set_K</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>323.15</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>_call_counter</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>aha_destroyed_mol_s</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F23</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+          <t>0.013267015330405365</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>aha_hno3_consumption</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>aha_name</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>aha_products</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AcOH:1.0; N2O:0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>coupled_by_water</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>cp_liq_J_per_molK</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>frac_vap</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>H2O:0.85; HNO3:0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>latent_kJ_per_mol</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>H2O:43.99; HNO3:39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>liq_rate_mol_s</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HNO3:0.009242728895215591; H2O:2.227294425657063; TBP:0.001234163667779189; AcOH:0.3001126226708491; N2O:0.15005631133542455; UO2(NO3)2:0.22911072298771137; Pu(NO3)4:0.04319710999360353; Np(NO3)4:0.001991790804482697; HTcO4:0.001937133403343266</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>min_liq_mol_s</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>H2O:0.05; HNO3:0.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>print_diagnostics</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>print_every</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0.23341505773539103</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>use_equilibrium</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>vap_rate_mol_s</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>HNO3:0.017291301765595138; H2O:0.6781819317017121</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>water_name</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>H2O</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>F18__to__T102_Evaporator__p</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9332.565789473683</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.95754350174995</v>
+      </c>
+      <c r="G38" t="n">
+        <v>60.00304527199359</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>liq</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>F21</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9332.565789473683</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.268703775947846</v>
+      </c>
+      <c r="G42" t="n">
+        <v>46.7887946032161</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>vap</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>F22</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>388.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10.28282694979929</v>
-      </c>
-      <c r="G19" t="n">
-        <v>198.5162089460284</v>
+      <c r="D43" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9332.565789473683</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.6954732334673073</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13.30700700646003</v>
       </c>
     </row>
   </sheetData>
@@ -3037,7 +3065,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F10__to__X103_Final_Strip</t>
+          <t>M201_EvapOverheadMixer</t>
         </is>
       </c>
     </row>
@@ -3049,7 +3077,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HeaterCooler</t>
+          <t>Mixer</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3087,9 @@
           <t>Condition_T [K]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>323.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3067,7 +3097,9 @@
           <t>Condition_p [Pa]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>9332.565789473683</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3077,7 +3109,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HX_</t>
+          <t>M201_</t>
         </is>
       </c>
     </row>
@@ -3113,90 +3145,107 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>set_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>323.15</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>T101_vap</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stream</t>
+          <t>F20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9332.565789473683</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.41195039870511</v>
+      </c>
+      <c r="G14" t="n">
+        <v>57.21250843774795</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>T102_vap</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>F22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>298.15</v>
+        <v>323.15</v>
       </c>
       <c r="E15" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="F15" t="n">
-        <v>5.881288806059096</v>
+        <v>0.6954732334673073</v>
       </c>
       <c r="G15" t="n">
-        <v>1285.898456825352</v>
+        <v>13.30700700646003</v>
       </c>
     </row>
     <row r="17">
@@ -3252,25 +3301,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F10_T</t>
+          <t>F23</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>323.15</v>
       </c>
       <c r="E19" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="F19" t="n">
-        <v>5.881288806059096</v>
+        <v>3.107423632172417</v>
       </c>
       <c r="G19" t="n">
-        <v>1285.898456825352</v>
+        <v>70.51951544420798</v>
       </c>
     </row>
   </sheetData>
@@ -3284,7 +3333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3300,7 +3349,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>X103_Final_Strip</t>
+          <t>HX__F10__to__X103_Final_Strip</t>
         </is>
       </c>
     </row>
@@ -3312,7 +3361,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MultiStageCentrifugalContactorAHA_Strip</t>
+          <t>HeaterCooler</t>
         </is>
       </c>
     </row>
@@ -3322,9 +3371,7 @@
           <t>Condition_T [K]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>323.15</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3332,9 +3379,7 @@
           <t>Condition_p [Pa]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>100000</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3344,7 +3389,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>X103_</t>
+          <t>HX_</t>
         </is>
       </c>
     </row>
@@ -3383,319 +3428,161 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AO_design</t>
+          <t>set_T</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.6233797469117313</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AO_max</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>10000.0</t>
+          <t>323.15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AO_used</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.6233797469117311</t>
-        </is>
-      </c>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>port</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HTcO4:0.93; UO2(NO3)2:0.25</t>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>N_balance_cap</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>N_max</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+          <t>F10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.878288708300023</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1284.967983538659</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>N_used</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>nontransfer_keep_in_aq</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>nontransfer_keep_in_org</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>required_recovery_to_aq</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>UO2(NO3)2:0.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>org_in</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>F10_T</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F10__to__X103_Final_Strip__T</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D19" t="n">
         <v>323.15</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E19" t="n">
         <v>100000</v>
       </c>
-      <c r="F24" t="n">
-        <v>5.881288806059096</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1285.898456825352</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>aq_in</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>F11</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E25" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3.666276327435916</v>
-      </c>
-      <c r="G25" t="n">
-        <v>66.0776926218041</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>org_out</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>F13</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E29" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F29" t="n">
-        <v>5.080788952460686</v>
-      </c>
-      <c r="G29" t="n">
-        <v>970.5369683388589</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>aq_out</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>F12</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E30" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4.466776181034326</v>
-      </c>
-      <c r="G30" t="n">
-        <v>381.4391811082967</v>
+      <c r="F19" t="n">
+        <v>5.878288708300023</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1284.967983538659</v>
       </c>
     </row>
   </sheetData>
@@ -3725,7 +3612,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F13__to__V133_SolventPurge</t>
+          <t>HX__F11__to__X103_Final_Strip</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3696,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>298.15</t>
+          <t>323.15</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3753,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F13</t>
+          <t>F11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3875,16 +3762,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>323.15</v>
+        <v>298.15</v>
       </c>
       <c r="E15" t="n">
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>5.080788952460686</v>
+        <v>3.664406127254156</v>
       </c>
       <c r="G15" t="n">
-        <v>970.5369683388589</v>
+        <v>66.04398580275534</v>
       </c>
     </row>
     <row r="17">
@@ -3940,7 +3827,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F13_T</t>
+          <t>F11__to__X103_Final_Strip__T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3949,16 +3836,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>298.15</v>
+        <v>323.15</v>
       </c>
       <c r="E19" t="n">
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>5.080788952460686</v>
+        <v>3.664406127254156</v>
       </c>
       <c r="G19" t="n">
-        <v>970.5369683388589</v>
+        <v>66.04398580275534</v>
       </c>
     </row>
   </sheetData>
@@ -3972,7 +3859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3988,7 +3875,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>V133_SolventPurge</t>
+          <t>X103_Final_Strip</t>
         </is>
       </c>
     </row>
@@ -4000,7 +3887,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Splitter</t>
+          <t>MultiStageCentrifugalContactorAHA_Strip</t>
         </is>
       </c>
     </row>
@@ -4011,7 +3898,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>298.15</v>
+        <v>323.15</v>
       </c>
     </row>
     <row r="4">
@@ -4032,7 +3919,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>V133_</t>
+          <t>X103_</t>
         </is>
       </c>
     </row>
@@ -4071,190 +3958,319 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>frac_to_A</t>
+          <t>AO_design</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.6233797469117313</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AO_max</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10000.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>AO_used</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.6233797469117313</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
+          <t>HTcO4:0.93; UO2(NO3)2:0.25; TBP:10000.0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>N_balance_cap</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F13_T</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5.080788952460686</v>
-      </c>
-      <c r="G15" t="n">
-        <v>970.5369683388589</v>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>N_max</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>N_used</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
+          <t>nontransfer_keep_in_aq</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F14</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.2540394476230343</v>
-      </c>
-      <c r="G19" t="n">
-        <v>48.52684841694294</v>
-      </c>
+          <t>nontransfer_keep_in_org</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>required_recovery_to_aq</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>F15</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+          <t>UO2(NO3)2:0.999</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>org_in</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>F10__to__X103_Final_Strip__T</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D24" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E24" t="n">
         <v>100000</v>
       </c>
-      <c r="F20" t="n">
-        <v>4.826749504837651</v>
-      </c>
-      <c r="G20" t="n">
-        <v>922.0101199219158</v>
+      <c r="F24" t="n">
+        <v>5.878288708300023</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1284.967983538659</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>aq_in</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>F11__to__X103_Final_Strip__T</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.664406127254156</v>
+      </c>
+      <c r="G25" t="n">
+        <v>66.04398580275534</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>org_out</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F13</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5.078881095095483</v>
+      </c>
+      <c r="G29" t="n">
+        <v>970.0318984601419</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>aq_out</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F12</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E30" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.463813740458696</v>
+      </c>
+      <c r="G30" t="n">
+        <v>380.9800708812721</v>
       </c>
     </row>
   </sheetData>
@@ -4499,7 +4515,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F1_T</t>
+          <t>F1__to__R101_Dissolver__T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4518,6 +4534,302 @@
       </c>
       <c r="G19" t="n">
         <v>239.603226011292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>V133_SolventPurge</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Splitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>298.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>V133_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>frac_to_A</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F13</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.078881095095483</v>
+      </c>
+      <c r="G15" t="n">
+        <v>970.0318984601419</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F14</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2539440547547742</v>
+      </c>
+      <c r="G19" t="n">
+        <v>48.50159492300709</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F15</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E20" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4.824937040340709</v>
+      </c>
+      <c r="G20" t="n">
+        <v>921.5303035371345</v>
       </c>
     </row>
   </sheetData>
@@ -4762,7 +5074,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F2_T</t>
+          <t>F2__to__R101_Dissolver__T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5025,7 +5337,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F2_B_T</t>
+          <t>F2_B__to__R101_Dissolver__T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5370,7 +5682,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>F1_T</t>
+          <t>F1__to__R101_Dissolver__T</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5399,7 +5711,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>F2_T</t>
+          <t>F2__to__R101_Dissolver__T</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5428,7 +5740,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>F2_B_T</t>
+          <t>F2_B__to__R101_Dissolver__T</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5587,6 +5899,285 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>V101_Liquid_Buffer</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BufferVessel</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>298.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>V101_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_T</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>set_p</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>set_phase</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>373.15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10.15990510862</v>
+      </c>
+      <c r="G17" t="n">
+        <v>520.4241428764042</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E21" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10.15990510862</v>
+      </c>
+      <c r="G21" t="n">
+        <v>520.4241428764042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5608,7 +6199,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F5__to__V101_Liquid_Buffer</t>
+          <t>M114_OrgFeedMixer</t>
         </is>
       </c>
     </row>
@@ -5620,7 +6211,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HeaterCooler</t>
+          <t>Mixer</t>
         </is>
       </c>
     </row>
@@ -5648,7 +6239,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HX_</t>
+          <t>M114_</t>
         </is>
       </c>
     </row>
@@ -5684,72 +6275,89 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>set_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>298.15</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>recycle</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stream</t>
+          <t>F15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.824937040340709</v>
+      </c>
+      <c r="G14" t="n">
+        <v>921.5303035371345</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>makeup</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5758,16 +6366,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>373.15</v>
+        <v>298.15</v>
       </c>
       <c r="E15" t="n">
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>10.15990510862</v>
+        <v>0.2557796353543366</v>
       </c>
       <c r="G15" t="n">
-        <v>520.4241428764042</v>
+        <v>48.98535733242784</v>
       </c>
     </row>
     <row r="17">
@@ -5823,7 +6431,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F5_T</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5838,10 +6446,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>10.15990510862</v>
+        <v>5.080716673913914</v>
       </c>
       <c r="G19" t="n">
-        <v>520.4241428764042</v>
+        <v>970.5156605293754</v>
       </c>
     </row>
   </sheetData>
@@ -5849,13 +6457,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5871,7 +6479,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>V101_Liquid_Buffer</t>
+          <t>X101_TBP_Extraction</t>
         </is>
       </c>
     </row>
@@ -5883,7 +6491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BufferVessel</t>
+          <t>MultiStageCentrifugalContactorTBP</t>
         </is>
       </c>
     </row>
@@ -5915,7 +6523,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>V101_</t>
+          <t>X101_</t>
         </is>
       </c>
     </row>
@@ -5954,173 +6562,339 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>set_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>UO2(NO3)2:40.0; Pu(NO3)4:4.0; Np(NO3)4:3.5; HTcO4:0.5; TBP:10000.0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>set_p</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>N_balance_cap</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>set_phase</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>N_max</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>N_used</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>OA_design</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.06233797469117312</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>OA_effective</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
+          <t>0.06233797469117312</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>OA_max</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>F5_T</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10.15990510862</v>
-      </c>
-      <c r="G17" t="n">
-        <v>520.4241428764042</v>
+          <t>1000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>OA_used</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.5000752093248653</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>nonextract_to_aq</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HNO3, Gd(NO3)3, Sm(NO3)3, Eu(NO3)3, H2O, Sr(NO3)2, CsNO3, I_aq, Nd(NO3)3</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>nonextract_to_org</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
+          <t>Dodecane</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>required_recovery</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>UO2(NO3)2:0.999</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>aq_in</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>F6</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D25" t="n">
         <v>298.15</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E25" t="n">
         <v>100000</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F25" t="n">
         <v>10.15990510862</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G25" t="n">
         <v>520.4241428764042</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>org_in</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E26" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5.080716673913914</v>
+      </c>
+      <c r="G26" t="n">
+        <v>970.5156605293754</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>org_out</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E30" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5.890554806699982</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1289.960994853027</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>aq_out</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>F17</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E31" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9.350066975833931</v>
+      </c>
+      <c r="G31" t="n">
+        <v>200.9788085527522</v>
       </c>
     </row>
   </sheetData>
@@ -6128,7 +6902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6150,7 +6924,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>M114_OrgFeedMixer</t>
+          <t>HX__F17__to__T101_Evaporator</t>
         </is>
       </c>
     </row>
@@ -6162,7 +6936,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mixer</t>
+          <t>HeaterCooler</t>
         </is>
       </c>
     </row>
@@ -6190,7 +6964,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M114_</t>
+          <t>HX_</t>
         </is>
       </c>
     </row>
@@ -6226,89 +7000,72 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_T</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>323.15</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>recycle</t>
+          <t>port</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>F15</t>
+          <t>stream</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E14" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4.826749504837651</v>
-      </c>
-      <c r="G14" t="n">
-        <v>922.0101199219158</v>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>makeup</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F16</t>
+          <t>F17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6323,10 +7080,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2539976294970997</v>
+        <v>9.350066975833931</v>
       </c>
       <c r="G15" t="n">
-        <v>48.51077709654021</v>
+        <v>200.9788085527522</v>
       </c>
     </row>
     <row r="17">
@@ -6382,7 +7139,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F17__to__T101_Evaporator__T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6391,449 +7148,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>298.15</v>
+        <v>323.15</v>
       </c>
       <c r="E19" t="n">
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>5.080747132552736</v>
+        <v>9.350066975833931</v>
       </c>
       <c r="G19" t="n">
-        <v>970.5208966780378</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>X101_TBP_Extraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MultiStageCentrifugalContactorTBP</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>298.15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>X101_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>UO2(NO3)2:40.0; Pu(NO3)4:4.0; Np(NO3)4:3.5; HTcO4:0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>N_balance_cap</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>N_max</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>N_used</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>OA_design</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.06233797469117312</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>OA_max</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1000.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>OA_used</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0.5000782072503869</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>nonextract_to_aq</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CsNO3, H2O, Sr(NO3)2, I_aq, Nd(NO3)3, HNO3, Sm(NO3)3, Gd(NO3)3, Eu(NO3)3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>nonextract_to_org</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TBP, Dodecane</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>required_recovery</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>UO2(NO3)2:0.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>aq_in</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>F6</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E24" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F24" t="n">
-        <v>10.15990510862</v>
-      </c>
-      <c r="G24" t="n">
-        <v>520.4241428764042</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>org_in</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>F7</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E25" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F25" t="n">
-        <v>5.080747132552736</v>
-      </c>
-      <c r="G25" t="n">
-        <v>970.5208966780378</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>org_out</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>F8</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E29" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F29" t="n">
-        <v>5.900175878399724</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1293.926768278144</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>aq_out</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>F17</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E30" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F30" t="n">
-        <v>9.340476362773011</v>
-      </c>
-      <c r="G30" t="n">
-        <v>197.0182712762979</v>
+        <v>200.9788085527522</v>
       </c>
     </row>
   </sheetData>

--- a/flowsheet_units.xlsx
+++ b/flowsheet_units.xlsx
@@ -7,40 +7,40 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="M102_AcidMixer" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="V102_AcidSurge" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="HX__F2_S-T" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R101_Dissolver" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="V101_Liquid_Buffer" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="M114_OrgFeedMixer" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="X101_TBP_Extraction" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="CF101_Coalescer_X101_to_E101" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="HX__F101-T" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="PC__F101-p" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="E101_Evaporator" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="X102_AHA_Strip" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="CF102_Coalescer_X102_to_E102" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="HX__F102-T" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="PC__F102-p" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="E102_Evaporator" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="M201_EvapOverheadMixer" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="HX__F10-T" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="HX__F11-T" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="X103_Final_Strip" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="CF103_Coalescer_X103_to_E103" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="HX__F112-T" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="E103_Evaporator100C" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="HX__F24-T" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="R201_UO3_Calciner" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="HX__F26-T" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="R202_U3O8_Converter" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="HX__F23-T" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="HX__F29-T" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="M301_HotVapMixer" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="K301_Condenser" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="M302_OffgasMixer" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="HX__F41-T" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="HX__F39-T" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="M105_WaterTrimMixer" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="M102_AcidMixer" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="V102_AcidSurge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="HX__F2_S-T" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R101_Dissolver" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="V101_Liquid_Buffer" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="M114_OrgFeedMixer" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="X101_TBP_Extraction" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="CF101_Coalescer_X101_to_E101" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="HX__F101-T" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="PC__F101-p" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="E101_Evaporator" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="X102_AHA_Strip" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="CF102_Coalescer_X102_to_E102" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="HX__F102-T" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="PC__F102-p" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="E102_Evaporator" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="M201_EvapOverheadMixer" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="HX__F10-T" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="HX__F11-T" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="X103_Final_Strip" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="CF103_Coalescer_X103_to_E103" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="HX__F112-T" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="E103_Evaporator100C" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="HX__F24-T" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="R201_UO3_Calciner" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="HX__F26-T" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="R202_U3O8_Converter" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="HX__F23-T" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="HX__F29-T" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="M301_HotVapMixer" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="K301_Condenser" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="M302_OffgasMixer" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="HX__F41-T" sheetId="34" state="visible" r:id="rId34"/>
     <sheet name="D101_NO2_Absorber" sheetId="35" state="visible" r:id="rId35"/>
     <sheet name="M303_AcidToConcentratorMixer" sheetId="36" state="visible" r:id="rId36"/>
     <sheet name="HX__F36-T" sheetId="37" state="visible" r:id="rId37"/>
@@ -54,14 +54,13 @@
     <sheet name="HX__F47-T" sheetId="45" state="visible" r:id="rId45"/>
     <sheet name="D102_NH3_Absorber" sheetId="46" state="visible" r:id="rId46"/>
     <sheet name="V105_KOWaterPurge" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="M105_WaterTrimMixer" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="V201_TSA_F49_Split" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="TSA101A_ColA" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="TSA101B_ColB" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="M132_CoalescerOrgMixer" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="M133_OrgRecoveryMixer" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="HX133_SolventCooldown" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="V133_SolventPurge" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="V201_TSA_F49_Split" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="TSA101A_ColA" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="TSA101B_ColB" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="M132_CoalescerOrgMixer" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="M133_OrgRecoveryMixer" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="HX133_SolventCooldown" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="V133_SolventPurge" sheetId="54" state="visible" r:id="rId54"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +482,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>M102_AcidMixer</t>
+          <t>M105_WaterTrimMixer</t>
         </is>
       </c>
     </row>
@@ -505,7 +504,9 @@
           <t>Condition_T [K]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>298.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -513,7 +514,9 @@
           <t>Condition_p [Pa]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -523,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M102_</t>
+          <t>M105_</t>
         </is>
       </c>
     </row>
@@ -607,12 +610,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>recycle</t>
+          <t>fresh_water</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>F2_R</t>
+          <t>F2_W</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -627,21 +630,21 @@
         <v>100000</v>
       </c>
       <c r="F14" t="n">
-        <v>3.662495813477712</v>
+        <v>3.268202108648651</v>
       </c>
       <c r="G14" t="n">
-        <v>97.22164118041312</v>
+        <v>58.87666098730544</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>acid_stock</t>
+          <t>recycle_ko_water</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F2_M</t>
+          <t>F45_R</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -650,119 +653,90 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>298.15</v>
+        <v>323.15</v>
       </c>
       <c r="E15" t="n">
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>4.467538165625633</v>
+        <v>0.1236522636382453</v>
       </c>
       <c r="G15" t="n">
-        <v>181.3702467441379</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>water_trim</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>F2_WM</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E16" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.501955284535389</v>
-      </c>
-      <c r="G16" t="n">
-        <v>27.05772445090504</v>
-      </c>
+        <v>2.227595529442989</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>stream</t>
+          <t>F2_WM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D19" t="n">
         <v>298.15</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E19" t="n">
         <v>100000</v>
       </c>
-      <c r="F20" t="n">
-        <v>9.631989263638639</v>
-      </c>
-      <c r="G20" t="n">
-        <v>305.6496123754537</v>
+      <c r="F19" t="n">
+        <v>3.391854372286896</v>
+      </c>
+      <c r="G19" t="n">
+        <v>61.10425651674843</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +766,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>PC__F101-p</t>
+          <t>HX__F101-T</t>
         </is>
       </c>
     </row>
@@ -804,7 +778,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PressureChanger</t>
+          <t>HeaterCooler</t>
         </is>
       </c>
     </row>
@@ -832,7 +806,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PC_</t>
+          <t>HX_</t>
         </is>
       </c>
     </row>
@@ -871,12 +845,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>set_p</t>
+          <t>set_T</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9332.565789473683</t>
+          <t>323.15</t>
         </is>
       </c>
     </row>
@@ -933,7 +907,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F101-T</t>
+          <t>F101</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -942,16 +916,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>323.15</v>
+        <v>298.15</v>
       </c>
       <c r="E15" t="n">
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>9.472095609434117</v>
+        <v>9.472095609433778</v>
       </c>
       <c r="G15" t="n">
-        <v>202.7721891378996</v>
+        <v>202.7721891379177</v>
       </c>
     </row>
     <row r="17">
@@ -1007,7 +981,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F101-p</t>
+          <t>F101-T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1019,13 +993,13 @@
         <v>323.15</v>
       </c>
       <c r="E19" t="n">
-        <v>9332.565789473683</v>
+        <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>9.472095609434117</v>
+        <v>9.472095609433778</v>
       </c>
       <c r="G19" t="n">
-        <v>202.7721891378996</v>
+        <v>202.7721891379177</v>
       </c>
     </row>
   </sheetData>
@@ -1034,6 +1008,269 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PC__F101-p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PressureChanger</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PC_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_p</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9332.565789473683</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F101-T</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.472095609433778</v>
+      </c>
+      <c r="G15" t="n">
+        <v>202.7721891379177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F101-p</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9332.565789473683</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9.472095609433778</v>
+      </c>
+      <c r="G19" t="n">
+        <v>202.7721891379177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1179,7 +1416,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>105.93846230427096</t>
+          <t>105.93846230426524</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1440,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>105.93846230427096</t>
+          <t>105.93846230426524</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1464,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>231</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1572,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>I_aq:0.0006361104684192404; Zircaloy:0.3585655488938386; HNO3:0.15905904492691522; H2O:6.8268708209241895; TBP:0.006035531244830142; UO2(NO3)2:0.06431840588040878; Pu(NO3)4:0.3306702812076659; Np(NO3)4:0.01814801385282086; Am(NO3)4:0.018511162153143995; Nd(NO3)3:0.7221086824205409; Sm(NO3)3:0.1455149185216886; Eu(NO3)3:0.021075417735560598; Gd(NO3)3:0.012221252919131382; CsNO3:0.49146349249184185; Sr(NO3)2:0.12045490229957533; HTcO4:0.17644202348697688</t>
+          <t>I_aq:0.0006361104684192404; Zircaloy:0.3585655488938386; HNO3:0.15905904492688439; H2O:6.82687082092394; TBP:0.006035531244828567; UO2(NO3)2:0.0643184058845992; Pu(NO3)4:0.3306702812076659; Np(NO3)4:0.01814801385282086; Am(NO3)4:0.018511162153143995; Nd(NO3)3:0.7221086824205409; Sm(NO3)3:0.1455149185216886; Eu(NO3)3:0.021075417735560598; Gd(NO3)3:0.012221252919131382; CsNO3:0.49146349249184185; Sr(NO3)2:0.12045490229957533; HTcO4:0.17644202348731924</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1620,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.2384034702774239</t>
+          <t>0.23840347027742398</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1644,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HNO3:0.3059178915531654; H2O:2.1370235174743692</t>
+          <t>HNO3:0.3059178915531061; H2O:2.137023517474292</t>
         </is>
       </c>
     </row>
@@ -1491,10 +1728,10 @@
         <v>9332.565789473683</v>
       </c>
       <c r="F38" t="n">
-        <v>9.472095609434117</v>
+        <v>9.472095609433778</v>
       </c>
       <c r="G38" t="n">
-        <v>202.7721891378996</v>
+        <v>202.7721891379177</v>
       </c>
     </row>
     <row r="40">
@@ -1565,10 +1802,10 @@
         <v>9332.565789473683</v>
       </c>
       <c r="F42" t="n">
-        <v>7.029154200406582</v>
+        <v>7.029154200406381</v>
       </c>
       <c r="G42" t="n">
-        <v>144.9972122880508</v>
+        <v>144.997212288074</v>
       </c>
     </row>
     <row r="43">
@@ -1594,10 +1831,10 @@
         <v>9332.565789473683</v>
       </c>
       <c r="F43" t="n">
-        <v>2.442941409027535</v>
+        <v>2.442941409027398</v>
       </c>
       <c r="G43" t="n">
-        <v>57.77497684984883</v>
+        <v>57.7749768498437</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1799,7 +2036,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HNO3, AHA, H2O</t>
+          <t>AHA, HNO3, H2O</t>
         </is>
       </c>
     </row>
@@ -1895,10 +2132,10 @@
         <v>100000</v>
       </c>
       <c r="F24" t="n">
-        <v>5.936393202487567</v>
+        <v>5.936393202473183</v>
       </c>
       <c r="G24" t="n">
-        <v>1297.511879149372</v>
+        <v>1297.51187914665</v>
       </c>
     </row>
     <row r="25">
@@ -1924,10 +2161,10 @@
         <v>100000</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5936393202487568</v>
+        <v>0.5936393202473184</v>
       </c>
       <c r="G25" t="n">
-        <v>11.08762085646738</v>
+        <v>11.08762085644052</v>
       </c>
     </row>
     <row r="27">
@@ -1998,10 +2235,10 @@
         <v>100000</v>
       </c>
       <c r="F29" t="n">
-        <v>5.932241463753819</v>
+        <v>5.932241463739436</v>
       </c>
       <c r="G29" t="n">
-        <v>1295.707460969491</v>
+        <v>1295.70746096677</v>
       </c>
     </row>
     <row r="30">
@@ -2027,10 +2264,10 @@
         <v>100000</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5977910589825047</v>
+        <v>0.5977910589810662</v>
       </c>
       <c r="G30" t="n">
-        <v>12.89203903634828</v>
+        <v>12.89203903632143</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +2275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2232,7 +2469,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.010551660671575175</t>
+          <t>0.010551660671549607</t>
         </is>
       </c>
     </row>
@@ -2244,7 +2481,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TBP:9.292723108695137e-05; Dodecane:0.0</t>
+          <t>TBP:9.292723108654604e-05; Dodecane:0.0</t>
         </is>
       </c>
     </row>
@@ -2400,10 +2637,10 @@
         <v>100000</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5977910589825047</v>
+        <v>0.5977910589810662</v>
       </c>
       <c r="G30" t="n">
-        <v>12.89203903634828</v>
+        <v>12.89203903632143</v>
       </c>
     </row>
     <row r="32">
@@ -2474,10 +2711,10 @@
         <v>100000</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5976981317514177</v>
+        <v>0.5976981317499797</v>
       </c>
       <c r="G34" t="n">
-        <v>12.86729084201967</v>
+        <v>12.86729084199292</v>
       </c>
     </row>
     <row r="35">
@@ -2503,273 +2740,10 @@
         <v>100000</v>
       </c>
       <c r="F35" t="n">
-        <v>9.292723108695137e-05</v>
+        <v>9.292723108654604e-05</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02474819432861472</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>HX__F102-T</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>HeaterCooler</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HX_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>set_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>323.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F102</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5976981317514177</v>
-      </c>
-      <c r="G15" t="n">
-        <v>12.86729084201967</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F102-T</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.5976981317514177</v>
-      </c>
-      <c r="G19" t="n">
-        <v>12.86729084201967</v>
+        <v>0.02474819432850677</v>
       </c>
     </row>
   </sheetData>
@@ -2799,7 +2773,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>PC__F102-p</t>
+          <t>HX__F102-T</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2785,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PressureChanger</t>
+          <t>HeaterCooler</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2813,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PC_</t>
+          <t>HX_</t>
         </is>
       </c>
     </row>
@@ -2878,12 +2852,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>set_p</t>
+          <t>set_T</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9332.565789473683</t>
+          <t>323.15</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2914,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F102-T</t>
+          <t>F102</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2949,16 +2923,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>323.15</v>
+        <v>298.15</v>
       </c>
       <c r="E15" t="n">
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5976981317514177</v>
+        <v>0.5976981317499797</v>
       </c>
       <c r="G15" t="n">
-        <v>12.86729084201967</v>
+        <v>12.86729084199292</v>
       </c>
     </row>
     <row r="17">
@@ -3014,7 +2988,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F102-p</t>
+          <t>F102-T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3026,13 +3000,13 @@
         <v>323.15</v>
       </c>
       <c r="E19" t="n">
-        <v>9332.565789473683</v>
+        <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5976981317514177</v>
+        <v>0.5976981317499797</v>
       </c>
       <c r="G19" t="n">
-        <v>12.86729084201967</v>
+        <v>12.86729084199292</v>
       </c>
     </row>
   </sheetData>
@@ -3041,6 +3015,269 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PC__F102-p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PressureChanger</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PC_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_p</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9332.565789473683</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F102-T</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5976981317499797</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12.86729084199292</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F102-p</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9332.565789473683</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5976981317499797</v>
+      </c>
+      <c r="G19" t="n">
+        <v>12.86729084199292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3186,7 +3423,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6.096882433825763</t>
+          <t>6.096882433810991</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3447,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6.096882433825763</t>
+          <t>6.096882433810991</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3471,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>198</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3483,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.002674050992111517</t>
+          <t>0.0026740509921050377</t>
         </is>
       </c>
     </row>
@@ -3342,7 +3579,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HNO3:0.0018765795541773396; H2O:0.45009788882154744; TBP:0.0002901256319233439; AcOH:0.04873026508225948; N2O:0.02436513254112974; UO2(NO3)2:0.03691441103761302; Pu(NO3)4:0.034799479669008065; Np(NO3)4:0.0016045815013015806; HTcO4:0.0003566934081776743</t>
+          <t>HNO3:0.0018765795541727927; H2O:0.4500978888204568; TBP:0.0002901256319226376; AcOH:0.04873026508214141; N2O:0.024365132541070703; UO2(NO3)2:0.03691441103761909; Pu(NO3)4:0.034799479669008065; Np(NO3)4:0.0016045815013015806; HTcO4:0.0003566934081776743</t>
         </is>
       </c>
     </row>
@@ -3390,7 +3627,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.23141274884763202</t>
+          <t>0.23141274884763205</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3651,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HNO3:0.0034715224300456943; H2O:0.13551927845087475</t>
+          <t>HNO3:0.003471522430037283; H2O:0.1355192784505464</t>
         </is>
       </c>
     </row>
@@ -3498,10 +3735,10 @@
         <v>9332.565789473683</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5976981317514177</v>
+        <v>0.5976981317499797</v>
       </c>
       <c r="G38" t="n">
-        <v>12.86729084201967</v>
+        <v>12.86729084199292</v>
       </c>
     </row>
     <row r="40">
@@ -3572,10 +3809,10 @@
         <v>9332.565789473683</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4600443563665531</v>
+        <v>0.4600443563654485</v>
       </c>
       <c r="G42" t="n">
-        <v>10.22585909687647</v>
+        <v>10.22585909685612</v>
       </c>
     </row>
     <row r="43">
@@ -3601,294 +3838,10 @@
         <v>9332.565789473683</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1389908008809204</v>
+        <v>0.1389908008805837</v>
       </c>
       <c r="G43" t="n">
-        <v>2.660127372654548</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>M201_EvapOverheadMixer</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mixer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>323.15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9332.565789473683</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M201_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>E101_vap</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>F20</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9332.565789473683</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.442941409027535</v>
-      </c>
-      <c r="G14" t="n">
-        <v>57.77497684984883</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>E102_vap</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F22</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9332.565789473683</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1389908008809204</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.660127372654548</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F23</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9332.565789473683</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.581932209908455</v>
-      </c>
-      <c r="G19" t="n">
-        <v>60.43510422250337</v>
+        <v>2.660127372648103</v>
       </c>
     </row>
   </sheetData>
@@ -3918,7 +3871,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F10-T</t>
+          <t>M201_EvapOverheadMixer</t>
         </is>
       </c>
     </row>
@@ -3930,7 +3883,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HeaterCooler</t>
+          <t>Mixer</t>
         </is>
       </c>
     </row>
@@ -3940,7 +3893,9 @@
           <t>Condition_T [K]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>323.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3948,7 +3903,9 @@
           <t>Condition_p [Pa]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>9332.565789473683</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3958,7 +3915,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HX_</t>
+          <t>M201_</t>
         </is>
       </c>
     </row>
@@ -3994,90 +3951,107 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>set_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>323.15</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>E101_vap</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stream</t>
+          <t>F20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9332.565789473683</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.442941409027398</v>
+      </c>
+      <c r="G14" t="n">
+        <v>57.7749768498437</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>E102_vap</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>F22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>298.15</v>
+        <v>323.15</v>
       </c>
       <c r="E15" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="F15" t="n">
-        <v>5.932241463753819</v>
+        <v>0.1389908008805837</v>
       </c>
       <c r="G15" t="n">
-        <v>1295.707460969491</v>
+        <v>2.660127372648103</v>
       </c>
     </row>
     <row r="17">
@@ -4133,25 +4107,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F10-T</t>
+          <t>F23</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>323.15</v>
       </c>
       <c r="E19" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="F19" t="n">
-        <v>5.932241463753819</v>
+        <v>2.581932209907982</v>
       </c>
       <c r="G19" t="n">
-        <v>1295.707460969491</v>
+        <v>60.4351042224918</v>
       </c>
     </row>
   </sheetData>
@@ -4181,7 +4155,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F11-T</t>
+          <t>HX__F10-T</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4296,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4337,10 +4311,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>3.698039182294134</v>
+        <v>5.932241463739436</v>
       </c>
       <c r="G15" t="n">
-        <v>66.65015797156678</v>
+        <v>1295.70746096677</v>
       </c>
     </row>
     <row r="17">
@@ -4396,7 +4370,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F11-T</t>
+          <t>F10-T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4411,10 +4385,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>3.698039182294134</v>
+        <v>5.932241463739436</v>
       </c>
       <c r="G19" t="n">
-        <v>66.65015797156678</v>
+        <v>1295.70746096677</v>
       </c>
     </row>
   </sheetData>
@@ -4428,7 +4402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4444,7 +4418,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>V102_AcidSurge</t>
+          <t>M102_AcidMixer</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4430,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BufferVessel</t>
+          <t>Mixer</t>
         </is>
       </c>
     </row>
@@ -4466,9 +4440,7 @@
           <t>Condition_T [K]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>298.15</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4476,9 +4448,7 @@
           <t>Condition_p [Pa]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>100000</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4488,7 +4458,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>V102_</t>
+          <t>M102_</t>
         </is>
       </c>
     </row>
@@ -4524,18 +4494,10 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>set_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>set_p</t>
+          <t>Inlets</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -4543,157 +4505,199 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>set_phase</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>recycle</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F2_R</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.669566341355428</v>
+      </c>
+      <c r="G14" t="n">
+        <v>140.1870639088393</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>acid_stock</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F2_M</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.570568549995897</v>
+      </c>
+      <c r="G15" t="n">
+        <v>104.3582919498543</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>water_trim</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>stream</t>
+          <t>F2_WM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D16" t="n">
         <v>298.15</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E16" t="n">
         <v>100000</v>
       </c>
-      <c r="F17" t="n">
-        <v>9.631989263638639</v>
-      </c>
-      <c r="G17" t="n">
-        <v>305.6496123754537</v>
-      </c>
+      <c r="F16" t="n">
+        <v>3.391854372286896</v>
+      </c>
+      <c r="G16" t="n">
+        <v>61.10425651674843</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>stream</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>F2_S</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D20" t="n">
         <v>298.15</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E20" t="n">
         <v>100000</v>
       </c>
-      <c r="F21" t="n">
-        <v>9.631989263638639</v>
-      </c>
-      <c r="G21" t="n">
-        <v>305.6496123754537</v>
+      <c r="F20" t="n">
+        <v>9.631989263638223</v>
+      </c>
+      <c r="G20" t="n">
+        <v>305.6496123754422</v>
       </c>
     </row>
   </sheetData>
@@ -4702,6 +4706,269 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>HX__F11-T</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HeaterCooler</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HX_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_T</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>323.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F11</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.698039182285167</v>
+      </c>
+      <c r="G15" t="n">
+        <v>66.65015797140518</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F11-T</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.698039182285167</v>
+      </c>
+      <c r="G19" t="n">
+        <v>66.65015797140518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4983,10 +5250,10 @@
         <v>100000</v>
       </c>
       <c r="F24" t="n">
-        <v>5.932241463753819</v>
+        <v>5.932241463739436</v>
       </c>
       <c r="G24" t="n">
-        <v>1295.707460969491</v>
+        <v>1295.70746096677</v>
       </c>
     </row>
     <row r="25">
@@ -5012,10 +5279,10 @@
         <v>100000</v>
       </c>
       <c r="F25" t="n">
-        <v>3.698039182294134</v>
+        <v>3.698039182285167</v>
       </c>
       <c r="G25" t="n">
-        <v>66.65015797156678</v>
+        <v>66.65015797140518</v>
       </c>
     </row>
     <row r="27">
@@ -5086,10 +5353,10 @@
         <v>100000</v>
       </c>
       <c r="F29" t="n">
-        <v>5.124080949056162</v>
+        <v>5.124080949041671</v>
       </c>
       <c r="G29" t="n">
-        <v>977.4108501265534</v>
+        <v>977.4108501237897</v>
       </c>
     </row>
     <row r="30">
@@ -5115,10 +5382,10 @@
         <v>100000</v>
       </c>
       <c r="F30" t="n">
-        <v>4.506199696991791</v>
+        <v>4.506199696982931</v>
       </c>
       <c r="G30" t="n">
-        <v>384.9467688145045</v>
+        <v>384.9467688143852</v>
       </c>
     </row>
   </sheetData>
@@ -5126,7 +5393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5320,7 +5587,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.06661933097167486</t>
+          <t>0.06661933097151333</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5599,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TBP:0.000675068447131033; Dodecane:0.0</t>
+          <t>TBP:0.0006750684471292648; Dodecane:0.0</t>
         </is>
       </c>
     </row>
@@ -5488,10 +5755,10 @@
         <v>100000</v>
       </c>
       <c r="F30" t="n">
-        <v>4.506199696991791</v>
+        <v>4.506199696982931</v>
       </c>
       <c r="G30" t="n">
-        <v>384.9467688145045</v>
+        <v>384.9467688143852</v>
       </c>
     </row>
     <row r="32">
@@ -5562,10 +5829,10 @@
         <v>100000</v>
       </c>
       <c r="F34" t="n">
-        <v>4.50552462854466</v>
+        <v>4.505524628535802</v>
       </c>
       <c r="G34" t="n">
-        <v>384.7669859358015</v>
+        <v>384.7669859356826</v>
       </c>
     </row>
     <row r="35">
@@ -5591,10 +5858,10 @@
         <v>100000</v>
       </c>
       <c r="F35" t="n">
-        <v>0.000675068447131033</v>
+        <v>0.0006750684471292648</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1797828787030425</v>
+        <v>0.1797828787025716</v>
       </c>
     </row>
   </sheetData>
@@ -5602,7 +5869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5780,10 +6047,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>4.50552462854466</v>
+        <v>4.505524628535802</v>
       </c>
       <c r="G15" t="n">
-        <v>384.7669859358015</v>
+        <v>384.7669859356826</v>
       </c>
     </row>
     <row r="17">
@@ -5854,10 +6121,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>4.50552462854466</v>
+        <v>4.505524628535802</v>
       </c>
       <c r="G19" t="n">
-        <v>384.7669859358015</v>
+        <v>384.7669859356826</v>
       </c>
     </row>
   </sheetData>
@@ -5865,7 +6132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6095,10 +6362,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>4.50552462854466</v>
+        <v>4.505524628535802</v>
       </c>
       <c r="G19" t="n">
-        <v>384.7669859358015</v>
+        <v>384.7669859356826</v>
       </c>
     </row>
     <row r="21">
@@ -6169,10 +6436,10 @@
         <v>100000</v>
       </c>
       <c r="F23" t="n">
-        <v>3.32823526406472</v>
+        <v>3.328235264056651</v>
       </c>
       <c r="G23" t="n">
-        <v>59.98514217441011</v>
+        <v>59.98514217426467</v>
       </c>
     </row>
     <row r="24">
@@ -6198,10 +6465,10 @@
         <v>100000</v>
       </c>
       <c r="F24" t="n">
-        <v>1.17728936447994</v>
+        <v>1.177289364479152</v>
       </c>
       <c r="G24" t="n">
-        <v>324.7818437613914</v>
+        <v>324.7818437614179</v>
       </c>
     </row>
   </sheetData>
@@ -6209,7 +6476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6387,10 +6654,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>1.17728936447994</v>
+        <v>1.177289364479152</v>
       </c>
       <c r="G15" t="n">
-        <v>324.7818437613914</v>
+        <v>324.7818437614179</v>
       </c>
     </row>
     <row r="17">
@@ -6461,10 +6728,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>1.17728936447994</v>
+        <v>1.177289364479152</v>
       </c>
       <c r="G19" t="n">
-        <v>324.7818437613914</v>
+        <v>324.7818437614179</v>
       </c>
     </row>
   </sheetData>
@@ -6472,7 +6739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6762,10 +7029,10 @@
         <v>100000</v>
       </c>
       <c r="F24" t="n">
-        <v>1.17728936447994</v>
+        <v>1.177289364479152</v>
       </c>
       <c r="G24" t="n">
-        <v>324.7818437613914</v>
+        <v>324.7818437614179</v>
       </c>
     </row>
     <row r="26">
@@ -6836,10 +7103,10 @@
         <v>100000</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8074306635413413</v>
+        <v>0.8074306635414499</v>
       </c>
       <c r="G28" t="n">
-        <v>230.8977171302632</v>
+        <v>230.8977171302943</v>
       </c>
     </row>
     <row r="29">
@@ -6865,10 +7132,10 @@
         <v>100000</v>
       </c>
       <c r="F29" t="n">
-        <v>2.388313945746149</v>
+        <v>2.388313945745524</v>
       </c>
       <c r="G29" t="n">
-        <v>93.87059576181045</v>
+        <v>93.87059576180603</v>
       </c>
     </row>
   </sheetData>
@@ -6876,7 +7143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7054,10 +7321,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8074306635413413</v>
+        <v>0.8074306635414499</v>
       </c>
       <c r="G15" t="n">
-        <v>230.8977171302632</v>
+        <v>230.8977171302943</v>
       </c>
     </row>
     <row r="17">
@@ -7128,10 +7395,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8074306635413413</v>
+        <v>0.8074306635414499</v>
       </c>
       <c r="G19" t="n">
-        <v>230.8977171302632</v>
+        <v>230.8977171302943</v>
       </c>
     </row>
   </sheetData>
@@ -7139,7 +7406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7357,10 +7624,10 @@
         <v>100000</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8074306635413413</v>
+        <v>0.8074306635414499</v>
       </c>
       <c r="G18" t="n">
-        <v>230.8977171302632</v>
+        <v>230.8977171302943</v>
       </c>
     </row>
     <row r="20">
@@ -7431,10 +7698,10 @@
         <v>100000</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2691435545137804</v>
+        <v>0.2691435545138166</v>
       </c>
       <c r="G22" t="n">
-        <v>226.5916894015972</v>
+        <v>226.5916894016277</v>
       </c>
     </row>
     <row r="23">
@@ -7460,273 +7727,10 @@
         <v>100000</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1345717772568902</v>
+        <v>0.1345717772569083</v>
       </c>
       <c r="G23" t="n">
-        <v>4.306027728665973</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>HX__F23-T</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>HeaterCooler</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HX_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>set_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>373.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F23</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9332.565789473683</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.581932209908455</v>
-      </c>
-      <c r="G15" t="n">
-        <v>60.43510422250337</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F23-T</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>373.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9332.565789473683</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.581932209908455</v>
-      </c>
-      <c r="G19" t="n">
-        <v>60.43510422250337</v>
+        <v>4.306027728666552</v>
       </c>
     </row>
   </sheetData>
@@ -7756,7 +7760,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F29-T</t>
+          <t>HX__F23-T</t>
         </is>
       </c>
     </row>
@@ -7897,7 +7901,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F29</t>
+          <t>F23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7906,16 +7910,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>383.15</v>
+        <v>323.15</v>
       </c>
       <c r="E15" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="F15" t="n">
-        <v>2.388313945746149</v>
+        <v>2.581932209907982</v>
       </c>
       <c r="G15" t="n">
-        <v>93.87059576181045</v>
+        <v>60.4351042224918</v>
       </c>
     </row>
     <row r="17">
@@ -7971,7 +7975,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F29-T</t>
+          <t>F23-T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7983,13 +7987,13 @@
         <v>373.15</v>
       </c>
       <c r="E19" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="F19" t="n">
-        <v>2.388313945746149</v>
+        <v>2.581932209907982</v>
       </c>
       <c r="G19" t="n">
-        <v>93.87059576181045</v>
+        <v>60.4351042224918</v>
       </c>
     </row>
   </sheetData>
@@ -7998,6 +8002,285 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>V102_AcidSurge</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BufferVessel</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>298.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>V102_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_T</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>set_p</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>set_phase</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9.631989263638223</v>
+      </c>
+      <c r="G17" t="n">
+        <v>305.6496123754422</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F2_S</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E21" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.631989263638223</v>
+      </c>
+      <c r="G21" t="n">
+        <v>305.6496123754422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8019,7 +8302,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F2_S-T</t>
+          <t>HX__F29-T</t>
         </is>
       </c>
     </row>
@@ -8160,25 +8443,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F2_S</t>
+          <t>F29</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>298.15</v>
+        <v>383.15</v>
       </c>
       <c r="E15" t="n">
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>9.631989263638639</v>
+        <v>2.388313945745524</v>
       </c>
       <c r="G15" t="n">
-        <v>305.6496123754537</v>
+        <v>93.87059576180603</v>
       </c>
     </row>
     <row r="17">
@@ -8234,12 +8517,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F2_S-T</t>
+          <t>F29-T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -8249,10 +8532,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>9.631989263638639</v>
+        <v>2.388313945745524</v>
       </c>
       <c r="G19" t="n">
-        <v>305.6496123754537</v>
+        <v>93.87059576180603</v>
       </c>
     </row>
   </sheetData>
@@ -8260,7 +8543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8430,10 +8713,10 @@
         <v>9332.565789473683</v>
       </c>
       <c r="F14" t="n">
-        <v>2.581932209908455</v>
+        <v>2.581932209907982</v>
       </c>
       <c r="G14" t="n">
-        <v>60.43510422250337</v>
+        <v>60.4351042224918</v>
       </c>
     </row>
     <row r="15">
@@ -8459,10 +8742,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>3.32823526406472</v>
+        <v>3.328235264056651</v>
       </c>
       <c r="G15" t="n">
-        <v>59.98514217441011</v>
+        <v>59.98514217426467</v>
       </c>
     </row>
     <row r="16">
@@ -8488,10 +8771,10 @@
         <v>100000</v>
       </c>
       <c r="F16" t="n">
-        <v>2.388313945746149</v>
+        <v>2.388313945745524</v>
       </c>
       <c r="G16" t="n">
-        <v>93.87059576181045</v>
+        <v>93.87059576180603</v>
       </c>
     </row>
     <row r="18">
@@ -8562,10 +8845,10 @@
         <v>100000</v>
       </c>
       <c r="F20" t="n">
-        <v>8.298481419719325</v>
+        <v>8.298481419710155</v>
       </c>
       <c r="G20" t="n">
-        <v>214.2908421587239</v>
+        <v>214.2908421585625</v>
       </c>
     </row>
   </sheetData>
@@ -8573,7 +8856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8767,10 +9050,10 @@
         <v>100000</v>
       </c>
       <c r="F16" t="n">
-        <v>8.298481419719325</v>
+        <v>8.298481419710155</v>
       </c>
       <c r="G16" t="n">
-        <v>214.2908421587239</v>
+        <v>214.2908421585625</v>
       </c>
     </row>
     <row r="18">
@@ -8841,10 +9124,10 @@
         <v>100000</v>
       </c>
       <c r="F20" t="n">
-        <v>6.279904760865971</v>
+        <v>6.279904760856532</v>
       </c>
       <c r="G20" t="n">
-        <v>127.0810636202872</v>
+        <v>127.081063620114</v>
       </c>
     </row>
     <row r="21">
@@ -8870,10 +9153,10 @@
         <v>100000</v>
       </c>
       <c r="F21" t="n">
-        <v>2.018576658853353</v>
+        <v>2.018576658853624</v>
       </c>
       <c r="G21" t="n">
-        <v>87.20977853843674</v>
+        <v>87.20977853844848</v>
       </c>
     </row>
   </sheetData>
@@ -8881,7 +9164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9051,10 +9334,10 @@
         <v>100000</v>
       </c>
       <c r="F14" t="n">
-        <v>2.018576658853353</v>
+        <v>2.018576658853624</v>
       </c>
       <c r="G14" t="n">
-        <v>87.20977853843674</v>
+        <v>87.20977853844848</v>
       </c>
     </row>
     <row r="15">
@@ -9183,273 +9466,10 @@
         <v>100000</v>
       </c>
       <c r="F20" t="n">
-        <v>4.927918194993353</v>
+        <v>4.927918194993625</v>
       </c>
       <c r="G20" t="n">
-        <v>178.7191031107917</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>HX__F41-T</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>HeaterCooler</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HX_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>set_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>313.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F41</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.927918194993353</v>
-      </c>
-      <c r="G15" t="n">
-        <v>178.7191031107917</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F41-T</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>313.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>4.927918194993353</v>
-      </c>
-      <c r="G19" t="n">
-        <v>178.7191031107917</v>
+        <v>178.7191031108034</v>
       </c>
     </row>
   </sheetData>
@@ -9479,7 +9499,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F39-T</t>
+          <t>HX__F41-T</t>
         </is>
       </c>
     </row>
@@ -9620,25 +9640,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F39</t>
+          <t>F41</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>313.15</v>
+        <v>298.15</v>
       </c>
       <c r="E15" t="n">
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>11.0253298816309</v>
+        <v>4.927918194993625</v>
       </c>
       <c r="G15" t="n">
-        <v>198.6213178175807</v>
+        <v>178.7191031108034</v>
       </c>
     </row>
     <row r="17">
@@ -9694,12 +9714,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F39-T</t>
+          <t>F41-T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -9709,10 +9729,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>11.0253298816309</v>
+        <v>4.927918194993625</v>
       </c>
       <c r="G19" t="n">
-        <v>198.6213178175807</v>
+        <v>178.7191031108034</v>
       </c>
     </row>
   </sheetData>
@@ -9938,7 +9958,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.9097002693825478</t>
+          <t>1.909700269382763</t>
         </is>
       </c>
     </row>
@@ -9950,7 +9970,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.0254061416715468</t>
+          <t>1.0254061416716147</t>
         </is>
       </c>
     </row>
@@ -9962,7 +9982,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.2985396545932453</t>
+          <t>2.2985396545934567</t>
         </is>
       </c>
     </row>
@@ -10082,10 +10102,10 @@
         <v>100000</v>
       </c>
       <c r="F30" t="n">
-        <v>4.927918194993353</v>
+        <v>4.927918194993625</v>
       </c>
       <c r="G30" t="n">
-        <v>178.7191031107917</v>
+        <v>178.7191031108034</v>
       </c>
     </row>
     <row r="31">
@@ -10096,7 +10116,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>F39-T</t>
+          <t>F39</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -10111,10 +10131,10 @@
         <v>100000</v>
       </c>
       <c r="F31" t="n">
-        <v>11.0253298816309</v>
+        <v>11.02532988163151</v>
       </c>
       <c r="G31" t="n">
-        <v>198.6213178175807</v>
+        <v>198.6213178175917</v>
       </c>
     </row>
     <row r="33">
@@ -10185,10 +10205,10 @@
         <v>100000</v>
       </c>
       <c r="F35" t="n">
-        <v>12.17459970892752</v>
+        <v>12.17459970892824</v>
       </c>
       <c r="G35" t="n">
-        <v>322.7528025940616</v>
+        <v>322.752802594084</v>
       </c>
     </row>
     <row r="36">
@@ -10214,10 +10234,10 @@
         <v>100000</v>
       </c>
       <c r="F36" t="n">
-        <v>1.860323934146448</v>
+        <v>1.860323934146457</v>
       </c>
       <c r="G36" t="n">
-        <v>54.5876183343108</v>
+        <v>54.58761833431112</v>
       </c>
     </row>
   </sheetData>
@@ -10391,10 +10411,10 @@
         <v>100000</v>
       </c>
       <c r="F14" t="n">
-        <v>12.17459970892752</v>
+        <v>12.17459970892824</v>
       </c>
       <c r="G14" t="n">
-        <v>322.7528025940616</v>
+        <v>322.752802594084</v>
       </c>
     </row>
     <row r="15">
@@ -10420,10 +10440,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>6.279904760865971</v>
+        <v>6.279904760856532</v>
       </c>
       <c r="G15" t="n">
-        <v>127.0810636202872</v>
+        <v>127.081063620114</v>
       </c>
     </row>
     <row r="17">
@@ -10494,10 +10514,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>18.45450446979349</v>
+        <v>18.45450446978477</v>
       </c>
       <c r="G19" t="n">
-        <v>449.8338662143488</v>
+        <v>449.833866214198</v>
       </c>
     </row>
   </sheetData>
@@ -10683,10 +10703,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>18.45450446979349</v>
+        <v>18.45450446978477</v>
       </c>
       <c r="G15" t="n">
-        <v>449.8338662143488</v>
+        <v>449.833866214198</v>
       </c>
     </row>
     <row r="17">
@@ -10757,10 +10777,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>18.45450446979349</v>
+        <v>18.45450446978477</v>
       </c>
       <c r="G19" t="n">
-        <v>449.8338662143488</v>
+        <v>449.833866214198</v>
       </c>
     </row>
   </sheetData>
@@ -10870,7 +10890,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
@@ -10938,7 +10958,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.694436878313821</t>
+          <t>12.640250794406402</t>
         </is>
       </c>
     </row>
@@ -10962,7 +10982,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
@@ -11034,10 +11054,10 @@
         <v>100000</v>
       </c>
       <c r="F22" t="n">
-        <v>18.45450446979349</v>
+        <v>18.45450446978477</v>
       </c>
       <c r="G22" t="n">
-        <v>449.8338662143488</v>
+        <v>449.833866214198</v>
       </c>
     </row>
     <row r="24">
@@ -11108,10 +11128,10 @@
         <v>100000</v>
       </c>
       <c r="F26" t="n">
-        <v>4.694436878313821</v>
+        <v>12.6402507944064</v>
       </c>
       <c r="G26" t="n">
-        <v>84.5702803628235</v>
+        <v>227.7141180612313</v>
       </c>
     </row>
     <row r="27">
@@ -11137,10 +11157,10 @@
         <v>100000</v>
       </c>
       <c r="F27" t="n">
-        <v>13.76006759147967</v>
+        <v>5.814253675378368</v>
       </c>
       <c r="G27" t="n">
-        <v>365.2635858515253</v>
+        <v>222.1197481529667</v>
       </c>
     </row>
   </sheetData>
@@ -11254,7 +11274,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.7338315535785919</t>
+          <t>0.36886717604101993</t>
         </is>
       </c>
     </row>
@@ -11326,10 +11346,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>13.76006759147967</v>
+        <v>5.814253675378368</v>
       </c>
       <c r="G15" t="n">
-        <v>365.2635858515253</v>
+        <v>222.1197481529667</v>
       </c>
     </row>
     <row r="17">
@@ -11400,10 +11420,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>10.09757177800196</v>
+        <v>2.14468733402294</v>
       </c>
       <c r="G19" t="n">
-        <v>268.0419446711122</v>
+        <v>81.93268424412737</v>
       </c>
     </row>
     <row r="20">
@@ -11429,10 +11449,10 @@
         <v>100000</v>
       </c>
       <c r="F20" t="n">
-        <v>3.662495813477712</v>
+        <v>3.669566341355428</v>
       </c>
       <c r="G20" t="n">
-        <v>97.22164118041312</v>
+        <v>140.1870639088393</v>
       </c>
     </row>
   </sheetData>
@@ -11446,7 +11466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11462,7 +11482,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>R101_Dissolver</t>
+          <t>HX__F2_S-T</t>
         </is>
       </c>
     </row>
@@ -11474,7 +11494,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DissolutionReactor</t>
+          <t>HeaterCooler</t>
         </is>
       </c>
     </row>
@@ -11484,9 +11504,7 @@
           <t>Condition_T [K]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>373.15</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -11494,9 +11512,7 @@
           <t>Condition_p [Pa]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>100000</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -11506,7 +11522,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R101_</t>
+          <t>HX_</t>
         </is>
       </c>
     </row>
@@ -11545,429 +11561,161 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cleaning_water_port</t>
+          <t>set_T</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cleaning_water</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>extra_inlet_ports</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>373.15</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fines_settle_frac</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>iodine_aq_species</t>
+          <t>port</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>I_aq</t>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>iodine_gas_species</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>I_g</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>iodine_offgas_frac</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
+          <t>F2_S</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.631989263638223</v>
+      </c>
+      <c r="G15" t="n">
+        <v>305.6496123754422</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>iodine_total_species</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>noble_gases</t>
+          <t>port</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Xe, Kr</t>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>nox_no2_frac</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.415</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>reactions</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>StoichReaction(name='R1', nu={'UO2': -1.0, 'HNO3': -4.0, 'UO2(NO3)2': 1.0, 'NO2': 2.0, 'H2O': 2.0}), StoichReaction(name='R2', nu={'UO2': -1.0, 'HNO3': -2.6666666666666665, 'UO2(NO3)2': 1.0, 'NO2': 0.6666666666666666, 'H2O': 1.3333333333333333}), StoichReaction(name='R3', nu={'PuO2': -1.0, 'HNO3': -4.0, 'Pu(NO3)4': 1.0, 'H2O': 2.0}), StoichReaction(name='R4', nu={'NpO2': -1.0, 'HNO3': -4.0, 'Np(NO3)4': 1.0, 'H2O': 2.0}), StoichReaction(name='R5', nu={'AmO2': -1.0, 'HNO3': -4.0, 'Am(NO3)4': 1.0, 'H2O': 2.0}), StoichReaction(name='R6', nu={'Cs2O': -1.0, 'HNO3': -2.0, 'CsNO3': 2.0, 'H2O': 1.0}), StoichReaction(name='R7', nu={'SrO': -1.0, 'HNO3': -2.0, 'Sr(NO3)2': 1.0, 'H2O': 1.0}), StoichReaction(name='R8', nu={'Nd2O3': -1.0, 'HNO3': -6.0, 'Nd(NO3)3': 2.0, 'H2O': 3.0}), StoichReaction(name='R9', nu={'Sm2O3': -1.0, 'HNO3': -6.0, 'Sm(NO3)3': 2.0, 'H2O': 3.0}), StoichReaction(name='R10', nu={'Eu2O3': -1.0, 'HNO3': -6.0, 'Eu(NO3)3': 2.0, 'H2O': 3.0}), StoichReaction(name='R11', nu={'Gd2O3': -1.0, 'HNO3': -6.0, 'Gd(NO3)3': 2.0, 'H2O': 3.0}), StoichReaction(name='R12', nu={'Tc': -1.0, 'HNO3': -7.0, 'HTcO4': 1.0, 'NO2': 7.0, 'H2O': 3.0})</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>uo2_r1_frac</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>zirc_basket</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0.125091068</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>zirc_escape</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0.006234</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>zircaloy_species</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Zircaloy</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>fuel</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>F1</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E28" t="n">
+          <t>F2_S-T</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>373.15</v>
+      </c>
+      <c r="E19" t="n">
         <v>100000</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.9844615539999999</v>
-      </c>
-      <c r="G28" t="n">
-        <v>239.603226011292</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>acid</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>F2_S-T</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>373.15</v>
-      </c>
-      <c r="E29" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F29" t="n">
-        <v>9.631989263638639</v>
-      </c>
-      <c r="G29" t="n">
-        <v>305.6496123754537</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>cleaning_water</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>F2_B</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E30" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.034165</v>
-      </c>
-      <c r="G30" t="n">
-        <v>18.630482475</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>offgas</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>F3</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>373.15</v>
-      </c>
-      <c r="E34" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.7737253141399999</v>
-      </c>
-      <c r="G34" t="n">
-        <v>29.89542977327291</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>aq</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>F5</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>373.15</v>
-      </c>
-      <c r="E35" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F35" t="n">
-        <v>10.28355737225864</v>
-      </c>
-      <c r="G35" t="n">
-        <v>522.6517384058579</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>solids</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>F4</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>373.15</v>
-      </c>
-      <c r="E36" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.125091068</v>
-      </c>
-      <c r="G36" t="n">
-        <v>11.411307587232</v>
+      <c r="F19" t="n">
+        <v>9.631989263638223</v>
+      </c>
+      <c r="G19" t="n">
+        <v>305.6496123754422</v>
       </c>
     </row>
   </sheetData>
@@ -12153,10 +11901,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>1.860323934146448</v>
+        <v>1.860323934146457</v>
       </c>
       <c r="G15" t="n">
-        <v>54.5876183343108</v>
+        <v>54.58761833431112</v>
       </c>
     </row>
     <row r="17">
@@ -12227,10 +11975,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>1.860323934146448</v>
+        <v>1.860323934146457</v>
       </c>
       <c r="G19" t="n">
-        <v>54.5876183343108</v>
+        <v>54.58761833431112</v>
       </c>
     </row>
   </sheetData>
@@ -12416,10 +12164,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09978954609401415</v>
+        <v>0.09978954609402255</v>
       </c>
       <c r="G15" t="n">
-        <v>1.699515759527155</v>
+        <v>1.699515759527298</v>
       </c>
     </row>
     <row r="17">
@@ -12490,10 +12238,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09978954609401415</v>
+        <v>0.09978954609402255</v>
       </c>
       <c r="G19" t="n">
-        <v>1.699515759527155</v>
+        <v>1.699515759527298</v>
       </c>
     </row>
   </sheetData>
@@ -12815,10 +12563,10 @@
         <v>100000</v>
       </c>
       <c r="F26" t="n">
-        <v>1.860323934146448</v>
+        <v>1.860323934146457</v>
       </c>
       <c r="G26" t="n">
-        <v>54.5876183343108</v>
+        <v>54.58761833431112</v>
       </c>
     </row>
     <row r="27">
@@ -12844,10 +12592,10 @@
         <v>100000</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09978954609401415</v>
+        <v>0.09978954609402255</v>
       </c>
       <c r="G27" t="n">
-        <v>1.699515759527155</v>
+        <v>1.699515759527298</v>
       </c>
     </row>
     <row r="29">
@@ -12918,10 +12666,10 @@
         <v>100000</v>
       </c>
       <c r="F31" t="n">
-        <v>1.990849965748203</v>
+        <v>1.990849965748224</v>
       </c>
       <c r="G31" t="n">
-        <v>56.28713409383796</v>
+        <v>56.28713409383841</v>
       </c>
     </row>
   </sheetData>
@@ -13107,10 +12855,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>1.990849965748203</v>
+        <v>1.990849965748224</v>
       </c>
       <c r="G15" t="n">
-        <v>56.28713409383796</v>
+        <v>56.28713409383841</v>
       </c>
     </row>
     <row r="17">
@@ -13181,10 +12929,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>1.990849965748203</v>
+        <v>1.990849965748224</v>
       </c>
       <c r="G19" t="n">
-        <v>56.28713409383796</v>
+        <v>56.28713409383841</v>
       </c>
     </row>
   </sheetData>
@@ -13410,10 +13158,10 @@
         <v>100000</v>
       </c>
       <c r="F18" t="n">
-        <v>1.990849965748203</v>
+        <v>1.990849965748224</v>
       </c>
       <c r="G18" t="n">
-        <v>56.28713409383796</v>
+        <v>56.28713409383841</v>
       </c>
     </row>
     <row r="20">
@@ -13484,10 +13232,10 @@
         <v>100000</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1301602775139315</v>
+        <v>0.1301602775139424</v>
       </c>
       <c r="G22" t="n">
-        <v>2.344837399413476</v>
+        <v>2.344837399413673</v>
       </c>
     </row>
     <row r="23">
@@ -13513,10 +13261,10 @@
         <v>100000</v>
       </c>
       <c r="F23" t="n">
-        <v>1.860689688234272</v>
+        <v>1.860689688234281</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94229669442448</v>
+        <v>53.94229669442474</v>
       </c>
     </row>
   </sheetData>
@@ -13702,10 +13450,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>12.59686918934602</v>
+        <v>12.59686918934608</v>
       </c>
       <c r="G15" t="n">
-        <v>226.9325984460686</v>
+        <v>226.9325984460697</v>
       </c>
     </row>
     <row r="17">
@@ -13776,10 +13524,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>12.59686918934602</v>
+        <v>12.59686918934608</v>
       </c>
       <c r="G19" t="n">
-        <v>226.9325984460686</v>
+        <v>226.9325984460697</v>
       </c>
     </row>
   </sheetData>
@@ -14041,10 +13789,10 @@
         <v>100000</v>
       </c>
       <c r="F21" t="n">
-        <v>1.860689688234272</v>
+        <v>1.860689688234281</v>
       </c>
       <c r="G21" t="n">
-        <v>53.94229669442448</v>
+        <v>53.94229669442474</v>
       </c>
     </row>
     <row r="22">
@@ -14070,10 +13818,10 @@
         <v>100000</v>
       </c>
       <c r="F22" t="n">
-        <v>12.59686918934602</v>
+        <v>12.59686918934608</v>
       </c>
       <c r="G22" t="n">
-        <v>226.9325984460686</v>
+        <v>226.9325984460697</v>
       </c>
     </row>
     <row r="24">
@@ -14144,10 +13892,10 @@
         <v>100000</v>
       </c>
       <c r="F26" t="n">
-        <v>12.6097550568199</v>
+        <v>12.60975505681996</v>
       </c>
       <c r="G26" t="n">
-        <v>227.1520576550162</v>
+        <v>227.1520576550174</v>
       </c>
     </row>
     <row r="27">
@@ -14173,10 +13921,10 @@
         <v>100000</v>
       </c>
       <c r="F27" t="n">
-        <v>1.847803820760393</v>
+        <v>1.847803820760401</v>
       </c>
       <c r="G27" t="n">
-        <v>53.72283748547684</v>
+        <v>53.72283748547709</v>
       </c>
     </row>
   </sheetData>
@@ -14366,10 +14114,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1301602775139315</v>
+        <v>0.1301602775139424</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344837399413476</v>
+        <v>2.344837399413673</v>
       </c>
     </row>
     <row r="17">
@@ -14440,10 +14188,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>0.006508013875696575</v>
+        <v>0.006508013875697122</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1172418699706738</v>
+        <v>0.1172418699706837</v>
       </c>
     </row>
     <row r="20">
@@ -14469,10 +14217,10 @@
         <v>100000</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1236522636382349</v>
+        <v>0.1236522636382453</v>
       </c>
       <c r="G20" t="n">
-        <v>2.227595529442802</v>
+        <v>2.227595529442989</v>
       </c>
     </row>
   </sheetData>
@@ -14481,290 +14229,6 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>M105_WaterTrimMixer</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mixer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>298.15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M105_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>fresh_water</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>F2_W</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E14" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.378303020897155</v>
-      </c>
-      <c r="G14" t="n">
-        <v>24.83012892146224</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>recycle_ko_water</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F45_R</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1236522636382349</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.227595529442802</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F2_WM</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.501955284535389</v>
-      </c>
-      <c r="G19" t="n">
-        <v>27.05772445090504</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14942,10 +14406,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>1.847803820760393</v>
+        <v>1.847803820760401</v>
       </c>
       <c r="G15" t="n">
-        <v>53.72283748547684</v>
+        <v>53.72283748547709</v>
       </c>
     </row>
     <row r="17">
@@ -15016,10 +14480,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>1.847803820760393</v>
+        <v>1.847803820760401</v>
       </c>
       <c r="G19" t="n">
-        <v>53.72283748547684</v>
+        <v>53.72283748547709</v>
       </c>
     </row>
     <row r="20">
@@ -15048,6 +14512,487 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>TSA101A_ColA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IdealTSAColumnEMM17</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>298.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TSA101A_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>I_desorb_mol_s</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>I_in_mol_s</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.00054190962</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>I_removed_mol_s</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.00054190962</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>I_slip_mol_s</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>bed_volume_m3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.030745979206530622</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>cap_work_mol_per_m3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>558.3720930232557</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>capacity_cycle_mol</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>17.167696761600002</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>iodine_name</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>I_g</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>loading_cycle_mol</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>15.606997056</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>adsorb</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>print_diagnostics</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>regen_yI2_max</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>t_ads_s</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>28800.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>t_regen_s</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>14400.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>gas_in</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>F49A</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E28" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.847803820760401</v>
+      </c>
+      <c r="G28" t="n">
+        <v>53.72283748547709</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>regen_in</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F52A</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>423.15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>gas_out</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>F50A</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E33" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.847261911140401</v>
+      </c>
+      <c r="G33" t="n">
+        <v>53.58302480351708</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>regen_out</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>F51A</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E34" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15062,7 +15007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15078,7 +15023,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>V101_Liquid_Buffer</t>
+          <t>R101_Dissolver</t>
         </is>
       </c>
     </row>
@@ -15090,7 +15035,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BufferVessel</t>
+          <t>DissolutionReactor</t>
         </is>
       </c>
     </row>
@@ -15101,7 +15046,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>298.15</v>
+        <v>373.15</v>
       </c>
     </row>
     <row r="4">
@@ -15122,7 +15067,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>V101_</t>
+          <t>R101_</t>
         </is>
       </c>
     </row>
@@ -15161,15 +15106,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>set_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>cleaning_water_port</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cleaning_water</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>set_p</t>
+          <t>extra_inlet_ports</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -15177,157 +15126,409 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>set_phase</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>fines_settle_frac</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>iodine_aq_species</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>I_aq</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>iodine_gas_species</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>I_g</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>iodine_offgas_frac</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
+          <t>0.98</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>iodine_total_species</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>F5</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>373.15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10.28355737225864</v>
-      </c>
-      <c r="G17" t="n">
-        <v>522.6517384058579</v>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>noble_gases</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xe, Kr</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>nox_no2_frac</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.415</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>reactions</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
+          <t>StoichReaction(name='R1', nu={'UO2': -1.0, 'HNO3': -4.0, 'UO2(NO3)2': 1.0, 'NO2': 2.0, 'H2O': 2.0}), StoichReaction(name='R2', nu={'UO2': -1.0, 'HNO3': -2.6666666666666665, 'UO2(NO3)2': 1.0, 'NO2': 0.6666666666666666, 'H2O': 1.3333333333333333}), StoichReaction(name='R3', nu={'PuO2': -1.0, 'HNO3': -4.0, 'Pu(NO3)4': 1.0, 'H2O': 2.0}), StoichReaction(name='R4', nu={'NpO2': -1.0, 'HNO3': -4.0, 'Np(NO3)4': 1.0, 'H2O': 2.0}), StoichReaction(name='R5', nu={'AmO2': -1.0, 'HNO3': -4.0, 'Am(NO3)4': 1.0, 'H2O': 2.0}), StoichReaction(name='R6', nu={'Cs2O': -1.0, 'HNO3': -2.0, 'CsNO3': 2.0, 'H2O': 1.0}), StoichReaction(name='R7', nu={'SrO': -1.0, 'HNO3': -2.0, 'Sr(NO3)2': 1.0, 'H2O': 1.0}), StoichReaction(name='R8', nu={'Nd2O3': -1.0, 'HNO3': -6.0, 'Nd(NO3)3': 2.0, 'H2O': 3.0}), StoichReaction(name='R9', nu={'Sm2O3': -1.0, 'HNO3': -6.0, 'Sm(NO3)3': 2.0, 'H2O': 3.0}), StoichReaction(name='R10', nu={'Eu2O3': -1.0, 'HNO3': -6.0, 'Eu(NO3)3': 2.0, 'H2O': 3.0}), StoichReaction(name='R11', nu={'Gd2O3': -1.0, 'HNO3': -6.0, 'Gd(NO3)3': 2.0, 'H2O': 3.0}), StoichReaction(name='R12', nu={'Tc': -1.0, 'HNO3': -7.0, 'HTcO4': 1.0, 'NO2': 7.0, 'H2O': 3.0})</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>uo2_r1_frac</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>F6</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+          <t>0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>zirc_basket</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.125091068</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>zirc_escape</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.006234</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>zircaloy_species</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Zircaloy</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E28" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9844615539999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>239.603226011292</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>acid</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F2_S-T</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D29" t="n">
+        <v>373.15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.631989263638223</v>
+      </c>
+      <c r="G29" t="n">
+        <v>305.6496123754422</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>cleaning_water</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F2_B</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>298.15</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E30" t="n">
         <v>100000</v>
       </c>
-      <c r="F21" t="n">
-        <v>10.28355737225864</v>
-      </c>
-      <c r="G21" t="n">
-        <v>522.6517384058579</v>
+      <c r="F30" t="n">
+        <v>1.034165</v>
+      </c>
+      <c r="G30" t="n">
+        <v>18.630482475</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>offgas</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>F3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>373.15</v>
+      </c>
+      <c r="E34" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.7737253141399999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>29.89542977327291</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>aq</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>373.15</v>
+      </c>
+      <c r="E35" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10.28355737225822</v>
+      </c>
+      <c r="G35" t="n">
+        <v>522.6517384058463</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>solids</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>373.15</v>
+      </c>
+      <c r="E36" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.125091068</v>
+      </c>
+      <c r="G36" t="n">
+        <v>11.411307587232</v>
       </c>
     </row>
   </sheetData>
@@ -15357,7 +15558,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>TSA101A_ColA</t>
+          <t>TSA101B_ColB</t>
         </is>
       </c>
     </row>
@@ -15401,7 +15602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TSA101A_</t>
+          <t>TSA101B_</t>
         </is>
       </c>
     </row>
@@ -15445,7 +15646,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.00108381924</t>
         </is>
       </c>
     </row>
@@ -15457,7 +15658,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.00054190962</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15469,7 +15670,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.00054190962</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15517,7 +15718,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>17.167696761600002</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15541,7 +15742,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15.606997056</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15553,7 +15754,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>adsorb</t>
+          <t>regen</t>
         </is>
       </c>
     </row>
@@ -15658,7 +15859,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>F49A</t>
+          <t>F49B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -15673,10 +15874,10 @@
         <v>100000</v>
       </c>
       <c r="F28" t="n">
-        <v>1.847803820760393</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>53.72283748547684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -15687,7 +15888,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>F52A</t>
+          <t>F52B</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -15702,10 +15903,10 @@
         <v>100000</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.0108381924</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.5610452723848225</v>
       </c>
     </row>
     <row r="31">
@@ -15761,7 +15962,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>F50A</t>
+          <t>F50B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -15776,10 +15977,10 @@
         <v>100000</v>
       </c>
       <c r="F33" t="n">
-        <v>1.847261911140393</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>53.58302480351684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -15790,7 +15991,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>F51A</t>
+          <t>F51B</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -15805,10 +16006,10 @@
         <v>100000</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.0108381924</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.5610452723848225</v>
       </c>
     </row>
   </sheetData>
@@ -15817,487 +16018,6 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>TSA101B_ColB</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>IdealTSAColumnEMM17</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>298.15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TSA101B_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>I_desorb_mol_s</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0.00108381924</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>I_in_mol_s</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>I_removed_mol_s</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>I_slip_mol_s</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>bed_volume_m3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.030745979206530622</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>cap_work_mol_per_m3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>558.3720930232557</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>capacity_cycle_mol</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>iodine_name</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>I_g</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>loading_cycle_mol</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>mode</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>regen</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>print_diagnostics</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>regen_yI2_max</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>t_ads_s</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>28800.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>t_regen_s</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>14400.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>gas_in</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>F49B</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E28" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>regen_in</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>F52B</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>423.15</v>
-      </c>
-      <c r="E29" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.0108381924</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.5610452723848225</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>gas_out</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>F50B</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E33" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>regen_out</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>F51B</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E34" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.0108381924</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.5610452723848225</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16463,10 +16183,10 @@
         <v>100000</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01764063823002691</v>
+        <v>0.01764063822997675</v>
       </c>
       <c r="G14" t="n">
-        <v>4.698019492144307</v>
+        <v>4.69801949213095</v>
       </c>
     </row>
     <row r="15">
@@ -16492,10 +16212,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>9.292723108695137e-05</v>
+        <v>9.292723108654604e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02474819432861472</v>
+        <v>0.02474819432850677</v>
       </c>
     </row>
     <row r="16">
@@ -16521,10 +16241,10 @@
         <v>100000</v>
       </c>
       <c r="F16" t="n">
-        <v>0.000675068447131033</v>
+        <v>0.0006750684471292648</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1797828787030425</v>
+        <v>0.1797828787025716</v>
       </c>
     </row>
     <row r="18">
@@ -16595,10 +16315,294 @@
         <v>100000</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01840863390824489</v>
+        <v>0.01840863390819256</v>
       </c>
       <c r="G20" t="n">
-        <v>4.902550565175964</v>
+        <v>4.902550565162028</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>M133_OrgRecoveryMixer</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mixer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>298.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>M133_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>main_org</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.124080949041671</v>
+      </c>
+      <c r="G14" t="n">
+        <v>977.4108501237897</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>recovered_org</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F107</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.01840863390819256</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.902550565162028</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F13_mix</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.142489582949864</v>
+      </c>
+      <c r="G19" t="n">
+        <v>982.3134006889518</v>
       </c>
     </row>
   </sheetData>
@@ -16628,7 +16632,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>M133_OrgRecoveryMixer</t>
+          <t>HX133_SolventCooldown</t>
         </is>
       </c>
     </row>
@@ -16640,7 +16644,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mixer</t>
+          <t>HeaterCooler</t>
         </is>
       </c>
     </row>
@@ -16650,9 +16654,7 @@
           <t>Condition_T [K]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>298.15</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -16660,9 +16662,7 @@
           <t>Condition_p [Pa]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>100000</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -16672,7 +16672,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M133_</t>
+          <t>HX133_</t>
         </is>
       </c>
     </row>
@@ -16708,89 +16708,72 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_T</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>298.15</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>main_org</t>
+          <t>port</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>F13</t>
+          <t>stream</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E14" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5.124080949056162</v>
-      </c>
-      <c r="G14" t="n">
-        <v>977.4108501265534</v>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>recovered_org</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F107</t>
+          <t>F13_mix</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -16805,10 +16788,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01840863390824489</v>
+        <v>5.142489582949864</v>
       </c>
       <c r="G15" t="n">
-        <v>4.902550565175964</v>
+        <v>982.3134006889518</v>
       </c>
     </row>
     <row r="17">
@@ -16864,7 +16847,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F13_mix</t>
+          <t>F13_T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -16879,10 +16862,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>5.142489582964407</v>
+        <v>5.142489582949864</v>
       </c>
       <c r="G19" t="n">
-        <v>982.3134006917294</v>
+        <v>982.3134006889518</v>
       </c>
     </row>
   </sheetData>
@@ -16891,6 +16874,581 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>V133_SolventPurge</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Splitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>298.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>V133_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>frac_to_A</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F13_T</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.142489582949864</v>
+      </c>
+      <c r="G15" t="n">
+        <v>982.3134006889518</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F14</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2571244791474932</v>
+      </c>
+      <c r="G19" t="n">
+        <v>49.1156700344476</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F15</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E20" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4.88536510380237</v>
+      </c>
+      <c r="G20" t="n">
+        <v>933.1977306545042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>V101_Liquid_Buffer</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BufferVessel</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>298.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>V101_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_T</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>set_p</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>set_phase</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>373.15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10.28355737225822</v>
+      </c>
+      <c r="G17" t="n">
+        <v>522.6517384058463</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E21" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10.28355737225822</v>
+      </c>
+      <c r="G21" t="n">
+        <v>522.6517384058463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16912,7 +17470,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX133_SolventCooldown</t>
+          <t>M114_OrgFeedMixer</t>
         </is>
       </c>
     </row>
@@ -16924,7 +17482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HeaterCooler</t>
+          <t>Mixer</t>
         </is>
       </c>
     </row>
@@ -16952,7 +17510,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HX133_</t>
+          <t>M114_</t>
         </is>
       </c>
     </row>
@@ -16988,72 +17546,89 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>set_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>298.15</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>recycle</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stream</t>
+          <t>F15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.88536510380237</v>
+      </c>
+      <c r="G14" t="n">
+        <v>933.1977306545042</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>makeup</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F13_mix</t>
+          <t>F16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -17068,10 +17643,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>5.142489582964407</v>
+        <v>0.2572069754071994</v>
       </c>
       <c r="G15" t="n">
-        <v>982.3134006917294</v>
+        <v>49.13261897056049</v>
       </c>
     </row>
     <row r="17">
@@ -17127,7 +17702,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F13_T</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -17142,10 +17717,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>5.142489582964407</v>
+        <v>5.142572077878716</v>
       </c>
       <c r="G19" t="n">
-        <v>982.3134006917294</v>
+        <v>982.3303493708531</v>
       </c>
     </row>
   </sheetData>
@@ -17153,583 +17728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>V133_SolventPurge</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Splitter</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>298.15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>V133_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>frac_to_A</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F13_T</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5.142489582964407</v>
-      </c>
-      <c r="G15" t="n">
-        <v>982.3134006917294</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F14</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.2571244791482203</v>
-      </c>
-      <c r="G19" t="n">
-        <v>49.11567003458647</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>F15</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E20" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4.885365103816186</v>
-      </c>
-      <c r="G20" t="n">
-        <v>933.1977306571429</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>M114_OrgFeedMixer</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mixer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M114_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>recycle</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>F15</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E14" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4.885365103816186</v>
-      </c>
-      <c r="G14" t="n">
-        <v>933.1977306571429</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>makeup</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F16</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.2572069756534415</v>
-      </c>
-      <c r="G15" t="n">
-        <v>49.13261901760063</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F7</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5.142572077893071</v>
-      </c>
-      <c r="G19" t="n">
-        <v>982.330349373558</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17923,7 +17922,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.5000771514890258</t>
+          <t>0.5000771514876501</t>
         </is>
       </c>
     </row>
@@ -17935,7 +17934,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nd(NO3)3, Gd(NO3)3, Sm(NO3)3, H2O, I_aq, HNO3, Sr(NO3)2, Eu(NO3)3, CsNO3</t>
+          <t>Sr(NO3)2, CsNO3, H2O, HNO3, I_aq, Sm(NO3)3, Eu(NO3)3, Gd(NO3)3, Nd(NO3)3</t>
         </is>
       </c>
     </row>
@@ -18031,10 +18030,10 @@
         <v>100000</v>
       </c>
       <c r="F25" t="n">
-        <v>10.28355737225864</v>
+        <v>10.28355737225822</v>
       </c>
       <c r="G25" t="n">
-        <v>522.6517384058579</v>
+        <v>522.6517384058463</v>
       </c>
     </row>
     <row r="26">
@@ -18060,10 +18059,10 @@
         <v>100000</v>
       </c>
       <c r="F26" t="n">
-        <v>5.142572077893071</v>
+        <v>5.142572077878716</v>
       </c>
       <c r="G26" t="n">
-        <v>982.330349373558</v>
+        <v>982.3303493708531</v>
       </c>
     </row>
     <row r="28">
@@ -18134,10 +18133,10 @@
         <v>100000</v>
       </c>
       <c r="F30" t="n">
-        <v>5.936393202487567</v>
+        <v>5.936393202473183</v>
       </c>
       <c r="G30" t="n">
-        <v>1297.511879149372</v>
+        <v>1297.51187914665</v>
       </c>
     </row>
     <row r="31">
@@ -18163,10 +18162,10 @@
         <v>100000</v>
       </c>
       <c r="F31" t="n">
-        <v>9.489736247664144</v>
+        <v>9.489736247663755</v>
       </c>
       <c r="G31" t="n">
-        <v>207.4702086300439</v>
+        <v>207.4702086300487</v>
       </c>
     </row>
   </sheetData>
@@ -18174,7 +18173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18356,7 +18355,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2.878907202653939</t>
+          <t>2.878907202653486</t>
         </is>
       </c>
     </row>
@@ -18368,7 +18367,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.16151160970087494</t>
+          <t>0.16151160970086903</t>
         </is>
       </c>
     </row>
@@ -18380,7 +18379,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TBP:0.017640638230026907; Dodecane:0.0</t>
+          <t>TBP:0.017640638229976753; Dodecane:0.0</t>
         </is>
       </c>
     </row>
@@ -18536,10 +18535,10 @@
         <v>100000</v>
       </c>
       <c r="F30" t="n">
-        <v>9.489736247664144</v>
+        <v>9.489736247663755</v>
       </c>
       <c r="G30" t="n">
-        <v>207.4702086300439</v>
+        <v>207.4702086300487</v>
       </c>
     </row>
     <row r="32">
@@ -18610,10 +18609,10 @@
         <v>100000</v>
       </c>
       <c r="F34" t="n">
-        <v>9.472095609434117</v>
+        <v>9.472095609433778</v>
       </c>
       <c r="G34" t="n">
-        <v>202.7721891378996</v>
+        <v>202.7721891379177</v>
       </c>
     </row>
     <row r="35">
@@ -18639,273 +18638,10 @@
         <v>100000</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01764063823002691</v>
+        <v>0.01764063822997675</v>
       </c>
       <c r="G35" t="n">
-        <v>4.698019492144307</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>HX__F101-T</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>HeaterCooler</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HX_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>set_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>323.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F101</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9.472095609434117</v>
-      </c>
-      <c r="G15" t="n">
-        <v>202.7721891378996</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F101-T</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>9.472095609434117</v>
-      </c>
-      <c r="G19" t="n">
-        <v>202.7721891378996</v>
+        <v>4.69801949213095</v>
       </c>
     </row>
   </sheetData>

--- a/flowsheet_units.xlsx
+++ b/flowsheet_units.xlsx
@@ -16,20 +16,20 @@
     <sheet name="M114_OrgFeedMixer" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="X101_TBP_Extraction" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="CF101_Coalescer_X101_to_E101" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="HX__F101-T" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="PC__F101-p" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="HX__F53-T" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="PC__F53-p" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="E101_Evaporator" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="X102_AHA_Strip" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="CF102_Coalescer_X102_to_E102" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="HX__F102-T" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="PC__F102-p" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="HX__F55-T" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="PC__F55-p" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="E102_Evaporator" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="M201_EvapOverheadMixer" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="HX__F10-T" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HX__F11-T" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="X103_Final_Strip" sheetId="21" state="visible" r:id="rId21"/>
     <sheet name="CF103_Coalescer_X103_to_E103" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="HX__F112-T" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="HX__F57-T" sheetId="23" state="visible" r:id="rId23"/>
     <sheet name="E103_Evaporator100C" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="HX__F24-T" sheetId="25" state="visible" r:id="rId25"/>
     <sheet name="R201_UO3_Calciner" sheetId="26" state="visible" r:id="rId26"/>
@@ -766,7 +766,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F101-T</t>
+          <t>HX__F53-T</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F101</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F101-T</t>
+          <t>F53-T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>PC__F101-p</t>
+          <t>PC__F53-p</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F101-T</t>
+          <t>F53-T</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F101-p</t>
+          <t>F53-p</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>F101-p</t>
+          <t>F53-p</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AHA, HNO3, H2O</t>
+          <t>AHA, H2O, HNO3</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>F102</t>
+          <t>F55</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>F106</t>
+          <t>F56</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F102-T</t>
+          <t>HX__F55-T</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F102</t>
+          <t>F55</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F102-T</t>
+          <t>F55-T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>PC__F102-p</t>
+          <t>PC__F55-p</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F102-T</t>
+          <t>F55-T</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F102-p</t>
+          <t>F55-p</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>F102-p</t>
+          <t>F55-p</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>F112</t>
+          <t>F57</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>F113</t>
+          <t>F58</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F112-T</t>
+          <t>HX__F57-T</t>
         </is>
       </c>
     </row>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F112</t>
+          <t>F57</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F112-T</t>
+          <t>F57-T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F112-T</t>
+          <t>F57-T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F138</t>
+          <t>F59</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F145</t>
+          <t>F60</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>F105</t>
+          <t>F54</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -16197,7 +16197,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F106</t>
+          <t>F56</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>F113</t>
+          <t>F58</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -16300,7 +16300,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>F107</t>
+          <t>F61</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -16510,7 +16510,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F107</t>
+          <t>F61</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -16584,7 +16584,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F13_mix</t>
+          <t>F62</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -16773,7 +16773,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F13_mix</t>
+          <t>F62</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -17934,7 +17934,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sr(NO3)2, CsNO3, H2O, HNO3, I_aq, Sm(NO3)3, Eu(NO3)3, Gd(NO3)3, Nd(NO3)3</t>
+          <t>Sm(NO3)3, Sr(NO3)2, CsNO3, HNO3, I_aq, Gd(NO3)3, H2O, Eu(NO3)3, Nd(NO3)3</t>
         </is>
       </c>
     </row>
@@ -18594,7 +18594,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>F101</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -18623,7 +18623,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>F105</t>
+          <t>F54</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">

--- a/flowsheet_units.xlsx
+++ b/flowsheet_units.xlsx
@@ -12,55 +12,56 @@
     <sheet name="V102_AcidSurge" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="HX__F2_S-T" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="R101_Dissolver" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="V101_Liquid_Buffer" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="M114_OrgFeedMixer" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="X101_TBP_Extraction" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="CF101_Coalescer_X101_to_E101" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="HX__F53-T" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="PC__F53-p" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="E101_Evaporator" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="X102_AHA_Strip" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="CF102_Coalescer_X102_to_E102" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="HX__F55-T" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="PC__F55-p" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="E102_Evaporator" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="M201_EvapOverheadMixer" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="HX__F10-T" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="HX__F11-T" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="X103_Final_Strip" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="CF103_Coalescer_X103_to_E103" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="HX__F57-T" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="E103_Evaporator100C" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="HX__F24-T" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="R201_UO3_Calciner" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="HX__F26-T" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="R202_U3O8_Converter" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="HX__F23-T" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="HX__F29-T" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="M301_HotVapMixer" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="K301_Condenser" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="M302_OffgasMixer" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="HX__F41-T" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="D101_NO2_Absorber" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="M303_AcidToConcentratorMixer" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="HX__F36-T" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="E104_HNO3_Concentrator" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="V104_AcidPurge" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="HX__F42-T" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="HX__F43-T" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="R103_NOxReduction" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="HX__F44-T" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="KO101_KnockOutPot" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="HX__F47-T" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="D102_NH3_Absorber" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="V105_KOWaterPurge" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="V201_TSA_F49_Split" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="TSA101A_ColA" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="TSA101B_ColB" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="M132_CoalescerOrgMixer" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="M133_OrgRecoveryMixer" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="HX133_SolventCooldown" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="V133_SolventPurge" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="V103_OffgasSurge" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="V101_Liquid_Buffer" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="M114_OrgFeedMixer" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="X101_TBP_Extraction" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="CF101_Coalescer_X101_to_E101" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="HX__F53-T" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="PC__F53-p" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="E101_Evaporator" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="X102_AHA_Strip" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="CF102_Coalescer_X102_to_E102" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="HX__F55-T" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="PC__F55-p" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="E102_Evaporator" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="M201_EvapOverheadMixer" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="HX__F10-T" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="HX__F11-T" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="X103_Final_Strip" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="CF103_Coalescer_X103_to_E103" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="HX__F57-T" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="E103_Evaporator100C" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="HX__F24-T" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="R201_UO3_Calciner" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="HX__F26-T" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="R202_U3O8_Converter" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="HX__F23-T" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="HX__F29-T" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="M301_HotVapMixer" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="K301_Condenser" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="M302_OffgasMixer" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="HX__F41-T" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="D101_NO2_Absorber" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="M303_AcidToConcentratorMixer" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="HX__F36-T" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="E104_HNO3_Concentrator" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="V104_AcidPurge" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="HX__F42-T" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="HX__F43-T" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="R103_NOxReduction" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="HX__F44-T" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="KO101_KnockOutPot" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="HX__F47-T" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="D102_NH3_Absorber" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="V105_KOWaterPurge" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="V201_TSA_F49_Split" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="TSA101A_ColA" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="TSA101B_ColB" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="M132_CoalescerOrgMixer" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="M133_OrgRecoveryMixer" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="HX133_SolventCooldown" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="V133_SolventPurge" sheetId="55" state="visible" r:id="rId55"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -750,7 +751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,7 +767,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F53-T</t>
+          <t>CF101_Coalescer_X101_to_E101</t>
         </is>
       </c>
     </row>
@@ -778,7 +779,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HeaterCooler</t>
+          <t>CoalescingFilterTBP</t>
         </is>
       </c>
     </row>
@@ -788,7 +789,9 @@
           <t>Condition_T [K]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>298.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -796,7 +799,9 @@
           <t>Condition_p [Pa]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -806,7 +811,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HX_</t>
+          <t>CF101_</t>
         </is>
       </c>
     </row>
@@ -845,161 +850,370 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>set_T</t>
+          <t>assume_pure_water_for_weak_stream</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>323.15</t>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>dil_solubility_strong_mol_L</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1e-08</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>dil_solubility_weak_mol_L</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2e-08</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>diluent_name</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
+          <t>Dodecane</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>hno3_name</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F53</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9.472095609433778</v>
-      </c>
-      <c r="G15" t="n">
-        <v>202.7721891379177</v>
+          <t>HNO3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>hno3_strong_M</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>last_HNO3_M</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2.878907202653486</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>last_Vdot_L_s</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
+          <t>0.16151160970086903</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>last_removed</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F53-T</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+          <t>TBP:0.017640638229976753; Dodecane:0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>print_diagnostics</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>removal_eff</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.999</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>tbp_name</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>tbp_solubility_strong_mol_L</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>tbp_solubility_weak_mol_L</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>water_molarity_pure</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>55.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>water_name</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>H2O</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F17</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D30" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E30" t="n">
         <v>100000</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F30" t="n">
+        <v>9.489736247663755</v>
+      </c>
+      <c r="G30" t="n">
+        <v>207.4702086300487</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>aq_out</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>F53</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E34" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F34" t="n">
         <v>9.472095609433778</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G34" t="n">
         <v>202.7721891379177</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>org_recovered</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>F54</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E35" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.01764063822997675</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4.69801949213095</v>
       </c>
     </row>
   </sheetData>
@@ -1029,7 +1243,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>PC__F53-p</t>
+          <t>HX__F53-T</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1255,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PressureChanger</t>
+          <t>HeaterCooler</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1283,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PC_</t>
+          <t>HX_</t>
         </is>
       </c>
     </row>
@@ -1108,12 +1322,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>set_p</t>
+          <t>set_T</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9332.565789473683</t>
+          <t>323.15</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1384,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F53-T</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1179,7 +1393,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>323.15</v>
+        <v>298.15</v>
       </c>
       <c r="E15" t="n">
         <v>100000</v>
@@ -1244,7 +1458,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F53-p</t>
+          <t>F53-T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1256,7 +1470,7 @@
         <v>323.15</v>
       </c>
       <c r="E19" t="n">
-        <v>9332.565789473683</v>
+        <v>100000</v>
       </c>
       <c r="F19" t="n">
         <v>9.472095609433778</v>
@@ -1271,6 +1485,269 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PC__F53-p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PressureChanger</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PC_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_p</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9332.565789473683</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F53-T</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.472095609433778</v>
+      </c>
+      <c r="G15" t="n">
+        <v>202.7721891379177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F53-p</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9332.565789473683</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9.472095609433778</v>
+      </c>
+      <c r="G19" t="n">
+        <v>202.7721891379177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1842,7 +2319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2275,7 +2752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2744,269 +3221,6 @@
       </c>
       <c r="G35" t="n">
         <v>0.02474819432850677</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>HX__F55-T</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>HeaterCooler</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HX_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>set_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>323.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F55</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5976981317499797</v>
-      </c>
-      <c r="G15" t="n">
-        <v>12.86729084199292</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F55-T</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.5976981317499797</v>
-      </c>
-      <c r="G19" t="n">
-        <v>12.86729084199292</v>
       </c>
     </row>
   </sheetData>
@@ -3036,7 +3250,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>PC__F55-p</t>
+          <t>HX__F55-T</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3262,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PressureChanger</t>
+          <t>HeaterCooler</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3290,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PC_</t>
+          <t>HX_</t>
         </is>
       </c>
     </row>
@@ -3115,12 +3329,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>set_p</t>
+          <t>set_T</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9332.565789473683</t>
+          <t>323.15</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3391,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F55-T</t>
+          <t>F55</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3186,7 +3400,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>323.15</v>
+        <v>298.15</v>
       </c>
       <c r="E15" t="n">
         <v>100000</v>
@@ -3251,7 +3465,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F55-p</t>
+          <t>F55-T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3263,7 +3477,7 @@
         <v>323.15</v>
       </c>
       <c r="E19" t="n">
-        <v>9332.565789473683</v>
+        <v>100000</v>
       </c>
       <c r="F19" t="n">
         <v>0.5976981317499797</v>
@@ -3278,6 +3492,269 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PC__F55-p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PressureChanger</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PC_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_p</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9332.565789473683</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F55-T</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5976981317499797</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12.86729084199292</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F55-p</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9332.565789473683</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5976981317499797</v>
+      </c>
+      <c r="G19" t="n">
+        <v>12.86729084199292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3842,290 +4319,6 @@
       </c>
       <c r="G43" t="n">
         <v>2.660127372648103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>M201_EvapOverheadMixer</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mixer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>323.15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9332.565789473683</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M201_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>E101_vap</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>F20</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9332.565789473683</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.442941409027398</v>
-      </c>
-      <c r="G14" t="n">
-        <v>57.7749768498437</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>E102_vap</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F22</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9332.565789473683</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1389908008805837</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.660127372648103</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F23</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9332.565789473683</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.581932209907982</v>
-      </c>
-      <c r="G19" t="n">
-        <v>60.4351042224918</v>
       </c>
     </row>
   </sheetData>
@@ -4155,7 +4348,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F10-T</t>
+          <t>M201_EvapOverheadMixer</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4360,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HeaterCooler</t>
+          <t>Mixer</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4370,9 @@
           <t>Condition_T [K]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>323.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4185,7 +4380,9 @@
           <t>Condition_p [Pa]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>9332.565789473683</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4195,7 +4392,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HX_</t>
+          <t>M201_</t>
         </is>
       </c>
     </row>
@@ -4231,90 +4428,107 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>set_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>323.15</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>E101_vap</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stream</t>
+          <t>F20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9332.565789473683</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.442941409027398</v>
+      </c>
+      <c r="G14" t="n">
+        <v>57.7749768498437</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>E102_vap</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>F22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>298.15</v>
+        <v>323.15</v>
       </c>
       <c r="E15" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="F15" t="n">
-        <v>5.932241463739436</v>
+        <v>0.1389908008805837</v>
       </c>
       <c r="G15" t="n">
-        <v>1295.70746096677</v>
+        <v>2.660127372648103</v>
       </c>
     </row>
     <row r="17">
@@ -4370,25 +4584,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F10-T</t>
+          <t>F23</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>323.15</v>
       </c>
       <c r="E19" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="F19" t="n">
-        <v>5.932241463739436</v>
+        <v>2.581932209907982</v>
       </c>
       <c r="G19" t="n">
-        <v>1295.70746096677</v>
+        <v>60.4351042224918</v>
       </c>
     </row>
   </sheetData>
@@ -4727,7 +4941,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F11-T</t>
+          <t>HX__F10-T</t>
         </is>
       </c>
     </row>
@@ -4868,7 +5082,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4883,10 +5097,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>3.698039182285167</v>
+        <v>5.932241463739436</v>
       </c>
       <c r="G15" t="n">
-        <v>66.65015797140518</v>
+        <v>1295.70746096677</v>
       </c>
     </row>
     <row r="17">
@@ -4942,7 +5156,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F11-T</t>
+          <t>F10-T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4957,10 +5171,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>3.698039182285167</v>
+        <v>5.932241463739436</v>
       </c>
       <c r="G19" t="n">
-        <v>66.65015797140518</v>
+        <v>1295.70746096677</v>
       </c>
     </row>
   </sheetData>
@@ -4969,6 +5183,269 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>HX__F11-T</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HeaterCooler</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HX_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_T</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>323.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F11</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.698039182285167</v>
+      </c>
+      <c r="G15" t="n">
+        <v>66.65015797140518</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F11-T</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.698039182285167</v>
+      </c>
+      <c r="G19" t="n">
+        <v>66.65015797140518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5393,7 +5870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5869,7 +6346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6132,7 +6609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6476,7 +6953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6739,7 +7216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7143,7 +7620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7406,7 +7883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7731,269 +8208,6 @@
       </c>
       <c r="G23" t="n">
         <v>4.306027728666552</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>HX__F23-T</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>HeaterCooler</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HX_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>set_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>373.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F23</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9332.565789473683</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.581932209907982</v>
-      </c>
-      <c r="G15" t="n">
-        <v>60.4351042224918</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F23-T</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>373.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9332.565789473683</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.581932209907982</v>
-      </c>
-      <c r="G19" t="n">
-        <v>60.4351042224918</v>
       </c>
     </row>
   </sheetData>
@@ -8302,7 +8516,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F29-T</t>
+          <t>HX__F23-T</t>
         </is>
       </c>
     </row>
@@ -8443,7 +8657,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F29</t>
+          <t>F23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -8452,16 +8666,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>383.15</v>
+        <v>323.15</v>
       </c>
       <c r="E15" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="F15" t="n">
-        <v>2.388313945745524</v>
+        <v>2.581932209907982</v>
       </c>
       <c r="G15" t="n">
-        <v>93.87059576180603</v>
+        <v>60.4351042224918</v>
       </c>
     </row>
     <row r="17">
@@ -8517,7 +8731,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F29-T</t>
+          <t>F23-T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -8529,13 +8743,13 @@
         <v>373.15</v>
       </c>
       <c r="E19" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="F19" t="n">
-        <v>2.388313945745524</v>
+        <v>2.581932209907982</v>
       </c>
       <c r="G19" t="n">
-        <v>93.87059576180603</v>
+        <v>60.4351042224918</v>
       </c>
     </row>
   </sheetData>
@@ -8544,6 +8758,269 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>HX__F29-T</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HeaterCooler</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HX_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_T</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>373.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F29</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>383.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.388313945745524</v>
+      </c>
+      <c r="G15" t="n">
+        <v>93.87059576180603</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F29-T</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>373.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.388313945745524</v>
+      </c>
+      <c r="G19" t="n">
+        <v>93.87059576180603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8856,7 +9333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9164,7 +9641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9348,7 +9825,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F63</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -9357,7 +9834,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>373.15</v>
+        <v>298.15</v>
       </c>
       <c r="E15" t="n">
         <v>100000</v>
@@ -9477,7 +9954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9740,7 +10217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10238,286 +10715,6 @@
       </c>
       <c r="G36" t="n">
         <v>54.58761833431112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>M303_AcidToConcentratorMixer</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mixer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M303_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>absorber_bottoms</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>F35</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>313.15</v>
-      </c>
-      <c r="E14" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>12.17459970892824</v>
-      </c>
-      <c r="G14" t="n">
-        <v>322.752802594084</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>condenser_liquid</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F31</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6.279904760856532</v>
-      </c>
-      <c r="G15" t="n">
-        <v>127.081063620114</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F36</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>18.45450446978477</v>
-      </c>
-      <c r="G19" t="n">
-        <v>449.833866214198</v>
       </c>
     </row>
   </sheetData>
@@ -10547,7 +10744,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F36-T</t>
+          <t>M303_AcidToConcentratorMixer</t>
         </is>
       </c>
     </row>
@@ -10559,7 +10756,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HeaterCooler</t>
+          <t>Mixer</t>
         </is>
       </c>
     </row>
@@ -10587,7 +10784,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HX_</t>
+          <t>M303_</t>
         </is>
       </c>
     </row>
@@ -10623,72 +10820,89 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>set_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>373.15</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>absorber_bottoms</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stream</t>
+          <t>F35</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12.17459970892824</v>
+      </c>
+      <c r="G14" t="n">
+        <v>322.752802594084</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>condenser_liquid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F36</t>
+          <t>F31</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -10703,10 +10917,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>18.45450446978477</v>
+        <v>6.279904760856532</v>
       </c>
       <c r="G15" t="n">
-        <v>449.833866214198</v>
+        <v>127.081063620114</v>
       </c>
     </row>
     <row r="17">
@@ -10762,7 +10976,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F36-T</t>
+          <t>F36</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -10771,7 +10985,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>373.15</v>
+        <v>298.15</v>
       </c>
       <c r="E19" t="n">
         <v>100000</v>
@@ -10789,6 +11003,269 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>HX__F36-T</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HeaterCooler</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HX_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_T</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>373.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F36</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>18.45450446978477</v>
+      </c>
+      <c r="G15" t="n">
+        <v>449.833866214198</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F36-T</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>373.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18.45450446978477</v>
+      </c>
+      <c r="G19" t="n">
+        <v>449.833866214198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11161,298 +11638,6 @@
       </c>
       <c r="G27" t="n">
         <v>222.1197481529667</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>V104_AcidPurge</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Splitter</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>V104_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>frac_to_A</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0.36886717604101993</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F38</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>373.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5.814253675378368</v>
-      </c>
-      <c r="G15" t="n">
-        <v>222.1197481529667</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F59</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.14468733402294</v>
-      </c>
-      <c r="G19" t="n">
-        <v>81.93268424412737</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>F2_R</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E20" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3.669566341355428</v>
-      </c>
-      <c r="G20" t="n">
-        <v>140.1870639088393</v>
       </c>
     </row>
   </sheetData>
@@ -11729,7 +11914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11745,7 +11930,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F42-T</t>
+          <t>V104_AcidPurge</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11942,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HeaterCooler</t>
+          <t>Splitter</t>
         </is>
       </c>
     </row>
@@ -11785,7 +11970,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HX_</t>
+          <t>V104_</t>
         </is>
       </c>
     </row>
@@ -11824,12 +12009,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>set_T</t>
+          <t>frac_to_A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>673.15</t>
+          <t>0.36886717604101993</t>
         </is>
       </c>
     </row>
@@ -11886,25 +12071,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F42</t>
+          <t>F38</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>313.15</v>
+        <v>373.15</v>
       </c>
       <c r="E15" t="n">
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>1.860323934146457</v>
+        <v>5.814253675378368</v>
       </c>
       <c r="G15" t="n">
-        <v>54.58761833431112</v>
+        <v>222.1197481529667</v>
       </c>
     </row>
     <row r="17">
@@ -11955,30 +12140,59 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F42-T</t>
+          <t>F59</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>673.15</v>
+        <v>298.15</v>
       </c>
       <c r="E19" t="n">
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>1.860323934146457</v>
+        <v>2.14468733402294</v>
       </c>
       <c r="G19" t="n">
-        <v>54.58761833431112</v>
+        <v>81.93268424412737</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F2_R</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E20" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.669566341355428</v>
+      </c>
+      <c r="G20" t="n">
+        <v>140.1870639088393</v>
       </c>
     </row>
   </sheetData>
@@ -12008,7 +12222,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX__F43-T</t>
+          <t>HX__F42-T</t>
         </is>
       </c>
     </row>
@@ -12149,7 +12363,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F43</t>
+          <t>F42</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -12158,16 +12372,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>298.15</v>
+        <v>313.15</v>
       </c>
       <c r="E15" t="n">
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09978954609402255</v>
+        <v>1.860323934146457</v>
       </c>
       <c r="G15" t="n">
-        <v>1.699515759527298</v>
+        <v>54.58761833431112</v>
       </c>
     </row>
     <row r="17">
@@ -12223,7 +12437,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F43-T</t>
+          <t>F42-T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -12238,10 +12452,10 @@
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09978954609402255</v>
+        <v>1.860323934146457</v>
       </c>
       <c r="G19" t="n">
-        <v>1.699515759527298</v>
+        <v>54.58761833431112</v>
       </c>
     </row>
   </sheetData>
@@ -12250,6 +12464,269 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>HX__F43-T</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HeaterCooler</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HX_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_T</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>673.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F43</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.09978954609402255</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.699515759527298</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F43-T</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>673.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.09978954609402255</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.699515759527298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12677,7 +13154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12940,7 +13417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13272,7 +13749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13535,7 +14012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13925,302 +14402,6 @@
       </c>
       <c r="G27" t="n">
         <v>53.72283748547709</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>V105_KOWaterPurge</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Splitter</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>323.15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>V105_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>frac_to_A</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F45</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1301602775139424</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.344837399413673</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F60</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.006508013875697122</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.1172418699706837</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>F45_R</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E20" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.1236522636382453</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.227595529442989</v>
       </c>
     </row>
   </sheetData>
@@ -14250,7 +14431,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>V201_TSA_F49_Split</t>
+          <t>V105_KOWaterPurge</t>
         </is>
       </c>
     </row>
@@ -14272,7 +14453,9 @@
           <t>Condition_T [K]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>323.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -14280,7 +14463,9 @@
           <t>Condition_p [Pa]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -14290,7 +14475,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>V201_</t>
+          <t>V105_</t>
         </is>
       </c>
     </row>
@@ -14334,7 +14519,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.05</t>
         </is>
       </c>
     </row>
@@ -14391,12 +14576,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F49</t>
+          <t>F45</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -14406,10 +14591,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>1.847803820760401</v>
+        <v>0.1301602775139424</v>
       </c>
       <c r="G15" t="n">
-        <v>53.72283748547709</v>
+        <v>2.344837399413673</v>
       </c>
     </row>
     <row r="17">
@@ -14465,25 +14650,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F49A</t>
+          <t>F60</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>298.15</v>
+        <v>323.15</v>
       </c>
       <c r="E19" t="n">
         <v>100000</v>
       </c>
       <c r="F19" t="n">
-        <v>1.847803820760401</v>
+        <v>0.006508013875697122</v>
       </c>
       <c r="G19" t="n">
-        <v>53.72283748547709</v>
+        <v>0.1172418699706837</v>
       </c>
     </row>
     <row r="20">
@@ -14494,25 +14679,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>F49B</t>
+          <t>F45_R</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>298.15</v>
+        <v>323.15</v>
       </c>
       <c r="E20" t="n">
         <v>100000</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.1236522636382453</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.227595529442989</v>
       </c>
     </row>
   </sheetData>
@@ -14526,7 +14711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14542,7 +14727,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>TSA101A_ColA</t>
+          <t>V201_TSA_F49_Split</t>
         </is>
       </c>
     </row>
@@ -14554,7 +14739,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IdealTSAColumnEMM17</t>
+          <t>Splitter</t>
         </is>
       </c>
     </row>
@@ -14564,9 +14749,7 @@
           <t>Condition_T [K]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>298.15</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -14574,9 +14757,7 @@
           <t>Condition_p [Pa]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>100000</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -14586,7 +14767,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TSA101A_</t>
+          <t>V201_</t>
         </is>
       </c>
     </row>
@@ -14625,374 +14806,189 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>I_desorb_mol_s</t>
+          <t>frac_to_A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>I_in_mol_s</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0.00054190962</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I_removed_mol_s</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.00054190962</t>
-        </is>
-      </c>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>I_slip_mol_s</t>
+          <t>port</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bed_volume_m3</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.030745979206530622</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>cap_work_mol_per_m3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>558.3720930232557</t>
-        </is>
+          <t>F49</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.847803820760401</v>
+      </c>
+      <c r="G15" t="n">
+        <v>53.72283748547709</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>capacity_cycle_mol</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>17.167696761600002</t>
-        </is>
-      </c>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>iodine_name</t>
+          <t>port</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>I_g</t>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>loading_cycle_mol</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15.606997056</t>
-        </is>
+          <t>F49A</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.847803820760401</v>
+      </c>
+      <c r="G19" t="n">
+        <v>53.72283748547709</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mode</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>adsorb</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>print_diagnostics</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>regen_yI2_max</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>t_ads_s</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>28800.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>t_regen_s</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>14400.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>gas_in</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>F49A</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+          <t>F49B</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D20" t="n">
         <v>298.15</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E20" t="n">
         <v>100000</v>
       </c>
-      <c r="F28" t="n">
-        <v>1.847803820760401</v>
-      </c>
-      <c r="G28" t="n">
-        <v>53.72283748547709</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>regen_in</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>F52A</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>423.15</v>
-      </c>
-      <c r="E29" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="F20" t="n">
         <v>0</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>gas_out</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>F50A</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E33" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.847261911140401</v>
-      </c>
-      <c r="G33" t="n">
-        <v>53.58302480351708</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>regen_out</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>F51A</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E34" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="G20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15558,7 +15554,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>TSA101B_ColB</t>
+          <t>TSA101A_ColA</t>
         </is>
       </c>
     </row>
@@ -15602,7 +15598,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TSA101B_</t>
+          <t>TSA101A_</t>
         </is>
       </c>
     </row>
@@ -15646,7 +15642,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.00108381924</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15658,7 +15654,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.00054190962</t>
         </is>
       </c>
     </row>
@@ -15670,7 +15666,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.00054190962</t>
         </is>
       </c>
     </row>
@@ -15718,7 +15714,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>17.167696761600002</t>
         </is>
       </c>
     </row>
@@ -15742,7 +15738,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>15.606997056</t>
         </is>
       </c>
     </row>
@@ -15754,7 +15750,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>regen</t>
+          <t>adsorb</t>
         </is>
       </c>
     </row>
@@ -15859,7 +15855,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>F49B</t>
+          <t>F49A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -15874,10 +15870,10 @@
         <v>100000</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.847803820760401</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>53.72283748547709</v>
       </c>
     </row>
     <row r="29">
@@ -15888,7 +15884,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>F52B</t>
+          <t>F52A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -15903,10 +15899,10 @@
         <v>100000</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0108381924</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5610452723848225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -15962,7 +15958,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>F50B</t>
+          <t>F50A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -15977,10 +15973,10 @@
         <v>100000</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1.847261911140401</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>53.58302480351708</v>
       </c>
     </row>
     <row r="34">
@@ -15991,7 +15987,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>F51B</t>
+          <t>F51A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -16006,10 +16002,10 @@
         <v>100000</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0108381924</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5610452723848225</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16018,6 +16014,487 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>TSA101B_ColB</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IdealTSAColumnEMM17</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>298.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TSA101B_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>I_desorb_mol_s</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.00108381924</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>I_in_mol_s</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>I_removed_mol_s</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>I_slip_mol_s</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>bed_volume_m3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.030745979206530622</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>cap_work_mol_per_m3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>558.3720930232557</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>capacity_cycle_mol</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>iodine_name</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>I_g</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>loading_cycle_mol</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>regen</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>print_diagnostics</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>regen_yI2_max</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>t_ads_s</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>28800.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>t_regen_s</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>14400.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>gas_in</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>F49B</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E28" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>regen_in</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F52B</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>423.15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0108381924</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5610452723848225</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>gas_out</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>F50B</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E33" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>regen_out</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>F51B</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E34" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0108381924</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.5610452723848225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16319,290 +16796,6 @@
       </c>
       <c r="G20" t="n">
         <v>4.902550565162028</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>M133_OrgRecoveryMixer</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mixer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>298.15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M133_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>main_org</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>F13</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>323.15</v>
-      </c>
-      <c r="E14" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5.124080949041671</v>
-      </c>
-      <c r="G14" t="n">
-        <v>977.4108501237897</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>recovered_org</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F61</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.01840863390819256</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4.902550565162028</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F62</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5.142489582949864</v>
-      </c>
-      <c r="G19" t="n">
-        <v>982.3134006889518</v>
       </c>
     </row>
   </sheetData>
@@ -16632,7 +16825,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HX133_SolventCooldown</t>
+          <t>M133_OrgRecoveryMixer</t>
         </is>
       </c>
     </row>
@@ -16644,7 +16837,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HeaterCooler</t>
+          <t>Mixer</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16847,9 @@
           <t>Condition_T [K]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>298.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -16662,7 +16857,9 @@
           <t>Condition_p [Pa]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -16672,7 +16869,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HX133_</t>
+          <t>M133_</t>
         </is>
       </c>
     </row>
@@ -16708,72 +16905,89 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>set_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>298.15</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>main_org</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stream</t>
+          <t>F13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>323.15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.124080949041671</v>
+      </c>
+      <c r="G14" t="n">
+        <v>977.4108501237897</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>recovered_org</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F62</t>
+          <t>F61</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -16788,10 +17002,10 @@
         <v>100000</v>
       </c>
       <c r="F15" t="n">
-        <v>5.142489582949864</v>
+        <v>0.01840863390819256</v>
       </c>
       <c r="G15" t="n">
-        <v>982.3134006889518</v>
+        <v>4.902550565162028</v>
       </c>
     </row>
     <row r="17">
@@ -16847,7 +17061,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F13_T</t>
+          <t>F62</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -16874,6 +17088,269 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>HX133_SolventCooldown</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HeaterCooler</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HX133_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_T</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>298.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F62</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.142489582949864</v>
+      </c>
+      <c r="G15" t="n">
+        <v>982.3134006889518</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F13_T</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.142489582949864</v>
+      </c>
+      <c r="G19" t="n">
+        <v>982.3134006889518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17191,7 +17668,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>V101_Liquid_Buffer</t>
+          <t>V103_OffgasSurge</t>
         </is>
       </c>
     </row>
@@ -17235,7 +17712,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>V101_</t>
+          <t>V103_</t>
         </is>
       </c>
     </row>
@@ -17348,12 +17825,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -17363,10 +17840,10 @@
         <v>100000</v>
       </c>
       <c r="F17" t="n">
-        <v>10.28355737225822</v>
+        <v>0.7737253141399999</v>
       </c>
       <c r="G17" t="n">
-        <v>522.6517384058463</v>
+        <v>29.89542977327291</v>
       </c>
     </row>
     <row r="19">
@@ -17422,12 +17899,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F63</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -17437,10 +17914,10 @@
         <v>100000</v>
       </c>
       <c r="F21" t="n">
-        <v>10.28355737225822</v>
+        <v>0.7737253141399999</v>
       </c>
       <c r="G21" t="n">
-        <v>522.6517384058463</v>
+        <v>29.89542977327291</v>
       </c>
     </row>
   </sheetData>
@@ -17449,6 +17926,285 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>V101_Liquid_Buffer</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BufferVessel</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Condition_T [K]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>298.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Condition_p [Pa]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InputParameters (matched prefix)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>V101_</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Calculated / Unit attributes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>attr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>set_T</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>set_p</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>set_phase</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>373.15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10.28355737225822</v>
+      </c>
+      <c r="G17" t="n">
+        <v>522.6517384058463</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E21" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10.28355737225822</v>
+      </c>
+      <c r="G21" t="n">
+        <v>522.6517384058463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17728,7 +18484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17934,7 +18690,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sm(NO3)3, Sr(NO3)2, CsNO3, HNO3, I_aq, Gd(NO3)3, H2O, Eu(NO3)3, Nd(NO3)3</t>
+          <t>Sm(NO3)3, I_aq, HNO3, Eu(NO3)3, Gd(NO3)3, Sr(NO3)2, Nd(NO3)3, H2O, CsNO3</t>
         </is>
       </c>
     </row>
@@ -18166,482 +18922,6 @@
       </c>
       <c r="G31" t="n">
         <v>207.4702086300487</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>CF101_Coalescer_X101_to_E101</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CoalescingFilterTBP</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Condition_T [K]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>298.15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Condition_p [Pa]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InputParameters (matched prefix)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CF101_</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Calculated / Unit attributes</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>assume_pure_water_for_weak_stream</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>dil_solubility_strong_mol_L</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1e-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>dil_solubility_weak_mol_L</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2e-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>diluent_name</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Dodecane</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>hno3_name</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HNO3</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>hno3_strong_M</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>last_HNO3_M</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2.878907202653486</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>last_Vdot_L_s</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0.16151160970086903</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>last_removed</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TBP:0.017640638229976753; Dodecane:0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>print_diagnostics</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>removal_eff</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>tbp_name</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>TBP</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>tbp_solubility_strong_mol_L</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>tbp_solubility_weak_mol_L</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>water_molarity_pure</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>55.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>water_name</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>H2O</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>F17</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E30" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F30" t="n">
-        <v>9.489736247663755</v>
-      </c>
-      <c r="G30" t="n">
-        <v>207.4702086300487</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>aq_out</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>F53</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E34" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F34" t="n">
-        <v>9.472095609433778</v>
-      </c>
-      <c r="G34" t="n">
-        <v>202.7721891379177</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>org_recovered</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>F54</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E35" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.01764063822997675</v>
-      </c>
-      <c r="G35" t="n">
-        <v>4.69801949213095</v>
       </c>
     </row>
   </sheetData>

--- a/flowsheet_units.xlsx
+++ b/flowsheet_units.xlsx
@@ -1235,7 +1235,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>H2O, Gd(NO3)3, I_aq, CsNO3, HNO3, Sm(NO3)3, Sr(NO3)2, Nd(NO3)3, Eu(NO3)3</t>
+          <t>HNO3, Gd(NO3)3, H2O, Eu(NO3)3, Nd(NO3)3, I_aq, Sr(NO3)2, CsNO3, Sm(NO3)3</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>H2O, AHA, HNO3</t>
+          <t>HNO3, H2O, AHA</t>
         </is>
       </c>
     </row>
@@ -16793,7 +16793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16897,7 +16897,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.00108381924</t>
         </is>
       </c>
     </row>
@@ -16976,290 +16976,310 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>iodine_name</t>
+          <t>captured_cycle_mol</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>I_g</t>
+          <t>15.606997056</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>loading_cycle_mol</t>
+          <t>iodine_name</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15.606997056</t>
+          <t>I_g</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mode</t>
+          <t>loading_cycle_mol</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>adsorb</t>
+          <t>15.606997056</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>print_diagnostics</t>
+          <t>mode</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>adsorb</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>regen_yI2_max</t>
+          <t>print_diagnostics</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t_ads_s</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>28800.0</t>
-        </is>
-      </c>
+          <t>regen_source</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t_regen_s</t>
+          <t>regen_yI2_max</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>14400.0</t>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>t_ads_s</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>28800.0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
+          <t>t_regen_s</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>14400.0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>gas_in</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>F49A</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E28" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.847803820760401</v>
-      </c>
-      <c r="G28" t="n">
-        <v>53.72283748547709</v>
-      </c>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>regen_in</t>
+          <t>port</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>F52A</t>
+          <t>stream</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>gas_in</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F49A</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>423.15</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D30" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E30" t="n">
         <v>100000</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
+      <c r="F30" t="n">
+        <v>1.847803820760401</v>
+      </c>
+      <c r="G30" t="n">
+        <v>53.72283748547709</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
+          <t>regen_in</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>F52A</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>423.15</v>
+      </c>
+      <c r="E31" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>gas_out</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>F50A</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E33" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.847261911140401</v>
-      </c>
-      <c r="G33" t="n">
-        <v>53.58302480351708</v>
-      </c>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>gas_out</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>F50A</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E35" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.847261911140401</v>
+      </c>
+      <c r="G35" t="n">
+        <v>53.58302480351708</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>regen_out</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>F51A</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D36" t="n">
         <v>298.15</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E36" t="n">
         <v>100000</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F36" t="n">
         <v>0</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17274,7 +17294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17457,290 +17477,314 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>iodine_name</t>
+          <t>captured_cycle_mol</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>I_g</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>loading_cycle_mol</t>
+          <t>iodine_name</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>I_g</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mode</t>
+          <t>loading_cycle_mol</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>regen</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>print_diagnostics</t>
+          <t>mode</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>regen</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>regen_yI2_max</t>
+          <t>print_diagnostics</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t_ads_s</t>
+          <t>regen_source</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>28800.0</t>
+          <t>&lt;process_sim.unitops.TSA.IdealTSAColumnEMM17 object at 0x0000018955AC5160&gt;</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t_regen_s</t>
+          <t>regen_yI2_max</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>14400.0</t>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>t_ads_s</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>28800.0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Inlets</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
+          <t>t_regen_s</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>14400.0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>gas_in</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>F49B</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E28" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
+          <t>Inlets</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>regen_in</t>
+          <t>port</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>F52B</t>
+          <t>stream</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>gas_in</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F49B</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>423.15</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D30" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E30" t="n">
         <v>100000</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.0108381924</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.5610452723848225</v>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Outlets</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>stream</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>phase</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>T [K]</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>p [Pa]</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>F_total [mol/s]</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>m_dot [g/s]</t>
-        </is>
+          <t>regen_in</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>F52B</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>423.15</v>
+      </c>
+      <c r="E31" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.009754373160000001</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2814199084648225</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>gas_out</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>F50B</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="E33" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
+          <t>Outlets</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>stream</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>phase</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>T [K]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>p [Pa]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>F_total [mol/s]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>m_dot [g/s]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>gas_out</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>F50B</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="E35" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>regen_out</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>F51B</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D36" t="n">
         <v>298.15</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E36" t="n">
         <v>100000</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F36" t="n">
         <v>0.0108381924</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G36" t="n">
         <v>0.5610452723848225</v>
       </c>
     </row>
